--- a/Dados Catarina Vigitel ICSAP Notas PMAQ POP Leitos Planos Priv ESF Gini IVS IDHM Porte Est Eq 13-08-2024.xlsx
+++ b/Dados Catarina Vigitel ICSAP Notas PMAQ POP Leitos Planos Priv ESF Gini IVS IDHM Porte Est Eq 13-08-2024.xlsx
@@ -1310,19 +1310,19 @@
         <v>195</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.497536556179532</v>
+        <v>4.97536556179532</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00255146951886939</v>
+        <v>0.0255146951886939</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0688896770094736</v>
+        <v>0.688896770094736</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.275558708037894</v>
+        <v>2.75558708037894</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.150536701613294</v>
+        <v>1.50536701613294</v>
       </c>
       <c r="AR2" t="n">
         <v>57.6686344569509</v>
@@ -1567,19 +1567,19 @@
         <v>2210</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.41249783038939</v>
+        <v>24.1249783038939</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0338404673041046</v>
+        <v>0.338404673041046</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1855767561838</v>
+        <v>1.855767561838</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.2400893824988</v>
+        <v>12.400893824988</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.952991224402688</v>
+        <v>9.52991224402688</v>
       </c>
       <c r="AR3" t="n">
         <v>44.5475644776378</v>
@@ -1824,19 +1824,19 @@
         <v>1365</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.74791088313628</v>
+        <v>27.4791088313628</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.00805248610442866</v>
+        <v>0.0805248610442867</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.23203037397759</v>
+        <v>12.3203037397759</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.946167117270368</v>
+        <v>9.46167117270368</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.561660905783899</v>
+        <v>5.61660905783899</v>
       </c>
       <c r="AR4" t="n">
         <v>59.6523163593644</v>
@@ -2081,19 +2081,19 @@
         <v>290</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.25274307535466</v>
+        <v>12.5274307535466</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.00863960741623901</v>
+        <v>0.0863960741623901</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.05835190848928</v>
+        <v>10.5835190848928</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.185751559449139</v>
+        <v>1.85751559449139</v>
       </c>
       <c r="AR5"/>
       <c r="AS5" t="s">
@@ -2316,19 +2316,19 @@
         <v>274</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.44596499337563</v>
+        <v>4.4596499337563</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.00651043785949824</v>
+        <v>0.0651043785949824</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0634767691301078</v>
+        <v>0.634767691301078</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.279948827958424</v>
+        <v>2.79948827958424</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0960289584275991</v>
+        <v>0.960289584275991</v>
       </c>
       <c r="AR6"/>
       <c r="AS6" t="s">
@@ -2551,19 +2551,19 @@
         <v>1155</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.03243545714097</v>
+        <v>10.3243545714097</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.00446941756338081</v>
+        <v>0.0446941756338081</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0581024283239505</v>
+        <v>0.581024283239505</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.691865838811349</v>
+        <v>6.91865838811349</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.277997772442286</v>
+        <v>2.77997772442286</v>
       </c>
       <c r="AR7" t="n">
         <v>64.7229772565185</v>
@@ -2808,19 +2808,19 @@
         <v>763</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.38277243154098</v>
+        <v>13.8277243154098</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0036245673172765</v>
+        <v>0.036245673172765</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0199351202450208</v>
+        <v>0.199351202450207</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.25047572446039</v>
+        <v>12.5047572446039</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.108737019518295</v>
+        <v>1.08737019518295</v>
       </c>
       <c r="AR8" t="n">
         <v>56.2515562603271</v>
@@ -3065,19 +3065,19 @@
         <v>78</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.538253986874883</v>
+        <v>5.38253986874884</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0276027685576863</v>
+        <v>0.276027685576863</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.476147757620089</v>
+        <v>4.76147757620089</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0345034606971079</v>
+        <v>0.345034606971079</v>
       </c>
       <c r="AR9" t="n">
         <v>66.826212291541</v>
@@ -3322,19 +3322,19 @@
         <v>1266</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.23934661176733</v>
+        <v>12.3934661176733</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0176210418734692</v>
+        <v>0.176210418734692</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0655894336401352</v>
+        <v>0.655894336401352</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.882031040444207</v>
+        <v>8.82031040444207</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.27410509580952</v>
+        <v>2.7410509580952</v>
       </c>
       <c r="AR10" t="n">
         <v>58.8664161730974</v>
@@ -3579,19 +3579,19 @@
         <v>210</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.767165324127349</v>
+        <v>7.67165324127349</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.00730633642026047</v>
+        <v>0.0730633642026047</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.00365316821013024</v>
+        <v>0.0365316821013024</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.562587904360056</v>
+        <v>5.62587904360056</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.193617915136902</v>
+        <v>1.93617915136902</v>
       </c>
       <c r="AR11" t="n">
         <v>65.0284678167194</v>
@@ -3836,19 +3836,19 @@
         <v>1412</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.31046880815089</v>
+        <v>13.1046880815089</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0464047028382044</v>
+        <v>0.464047028382044</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.171697400501356</v>
+        <v>1.71697400501356</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.735978587013922</v>
+        <v>7.35978587013922</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.35638811779741</v>
+        <v>3.5638811779741</v>
       </c>
       <c r="AR12" t="n">
         <v>66.9797591454771</v>
@@ -4093,19 +4093,19 @@
         <v>807</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.859562230388241</v>
+        <v>8.59562230388241</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0010651328753262</v>
+        <v>0.010651328753262</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0489961122650051</v>
+        <v>0.489961122650051</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.537892102039729</v>
+        <v>5.37892102039729</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.27160888320818</v>
+        <v>2.7160888320818</v>
       </c>
       <c r="AR13" t="n">
         <v>51.3377749939386</v>
@@ -4350,19 +4350,19 @@
         <v>214</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.04765867867721</v>
+        <v>10.4765867867721</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.00489560130222995</v>
+        <v>0.0489560130222995</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0195824052089198</v>
+        <v>0.195824052089198</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.587472156267594</v>
+        <v>5.87472156267594</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.435708515898465</v>
+        <v>4.35708515898465</v>
       </c>
       <c r="AR14" t="n">
         <v>53.3466339805293</v>
@@ -4607,19 +4607,19 @@
         <v>3388</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.746642807006718</v>
+        <v>7.46642807006718</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0110189316264274</v>
+        <v>0.110189316264274</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0892533461740617</v>
+        <v>0.892533461740617</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.383018063334615</v>
+        <v>3.83018063334615</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.263352465871614</v>
+        <v>2.63352465871614</v>
       </c>
       <c r="AR15" t="n">
         <v>64.6870346547511</v>
@@ -4864,19 +4864,19 @@
         <v>1831</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.964261752565484</v>
+        <v>9.64261752565484</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.031597872831201</v>
+        <v>0.31597872831201</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.0747816323671757</v>
+        <v>0.747816323671757</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.349683125998624</v>
+        <v>3.49683125998624</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.508199121368483</v>
+        <v>5.08199121368483</v>
       </c>
       <c r="AR16" t="n">
         <v>50.5395364543481</v>
@@ -5121,19 +5121,19 @@
         <v>673</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.994711622311101</v>
+        <v>9.94711622311101</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0339946022483734</v>
+        <v>0.339946022483734</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.066511178312035</v>
+        <v>0.66511178312035</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.741969144725368</v>
+        <v>7.41969144725368</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.152236697025325</v>
+        <v>1.52236697025325</v>
       </c>
       <c r="AR17"/>
       <c r="AS17" t="s">
@@ -5356,19 +5356,19 @@
         <v>9960</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.248537575152</v>
+        <v>12.48537575152</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0117833867534425</v>
+        <v>0.117833867534425</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.0561591198461942</v>
+        <v>0.561591198461942</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.502172843981817</v>
+        <v>5.02172843981817</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.678422224570543</v>
+        <v>6.78422224570543</v>
       </c>
       <c r="AR18" t="n">
         <v>72.5185833038694</v>
@@ -5613,19 +5613,19 @@
         <v>1527</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.79484006998997</v>
+        <v>27.9484006998997</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.0585690125996588</v>
+        <v>0.585690125996588</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.0256239430123507</v>
+        <v>0.256239430123507</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.84675417853299</v>
+        <v>18.4675417853299</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.863892935844968</v>
+        <v>8.63892935844968</v>
       </c>
       <c r="AR19"/>
       <c r="AS19" t="s">
@@ -5848,19 +5848,19 @@
         <v>95</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.401499494955898</v>
+        <v>4.01499494955898</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.00845262094643997</v>
+        <v>0.0845262094643997</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.0887525199376197</v>
+        <v>0.887525199376197</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.219768144607439</v>
+        <v>2.19768144607439</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.0845262094643997</v>
+        <v>0.845262094643997</v>
       </c>
       <c r="AR20" t="n">
         <v>59.4648914152003</v>
@@ -6105,19 +6105,19 @@
         <v>2885</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.65743634525232</v>
+        <v>16.5743634525232</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0114900266568618</v>
+        <v>0.114900266568618</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.0896222079235224</v>
+        <v>0.896222079235224</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.883583049912676</v>
+        <v>8.83583049912676</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.672741060759261</v>
+        <v>6.72741060759261</v>
       </c>
       <c r="AR21" t="n">
         <v>64.5673897047235</v>
@@ -6362,19 +6362,19 @@
         <v>1559</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.905660289671871</v>
+        <v>9.05660289671871</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.0127803248061457</v>
+        <v>0.127803248061457</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.0702917864338014</v>
+        <v>0.702917864338014</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.65644395595203</v>
+        <v>6.5644395595203</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.166144222479894</v>
+        <v>1.66144222479894</v>
       </c>
       <c r="AR22" t="n">
         <v>58.8916648249936</v>
@@ -6619,19 +6619,19 @@
         <v>368</v>
       </c>
       <c r="AM23" t="n">
-        <v>2.16591624731468</v>
+        <v>21.6591624731468</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.105941555575174</v>
+        <v>1.05941555575174</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.34781201259527</v>
+        <v>13.4781201259527</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.712162679144228</v>
+        <v>7.12162679144228</v>
       </c>
       <c r="AR23" t="n">
         <v>41.3956582439384</v>
@@ -6876,19 +6876,19 @@
         <v>321</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.600039254904526</v>
+        <v>6.00039254904526</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.0224313740151225</v>
+        <v>0.224313740151225</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.0411241856943912</v>
+        <v>0.411241856943912</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.456104604974157</v>
+        <v>4.56104604974157</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.0803790902208556</v>
+        <v>0.803790902208556</v>
       </c>
       <c r="AR24" t="n">
         <v>74.7341847359776</v>
@@ -7133,19 +7133,19 @@
         <v>734</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.95339528843185</v>
+        <v>19.5339528843185</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.00532260296575437</v>
+        <v>0.0532260296575437</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.202258912698666</v>
+        <v>2.02258912698666</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.14169833615431</v>
+        <v>11.4169833615431</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.604115436613121</v>
+        <v>6.04115436613121</v>
       </c>
       <c r="AR25" t="n">
         <v>69.3175069341295</v>
@@ -7390,19 +7390,19 @@
         <v>502</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.400721938089259</v>
+        <v>4.00721938089259</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.010377261344941</v>
+        <v>0.10377261344941</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.0526845575973926</v>
+        <v>0.526845575973926</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.273800049331904</v>
+        <v>2.73800049331904</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.0638600698150213</v>
+        <v>0.638600698150213</v>
       </c>
       <c r="AR26" t="n">
         <v>73.9462866905229</v>
@@ -7647,19 +7647,19 @@
         <v>108</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.347652540599701</v>
+        <v>3.47652540599701</v>
       </c>
       <c r="AN27" t="n">
         <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.045066070077739</v>
+        <v>0.45066070077739</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.260739405449775</v>
+        <v>2.60739405449775</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.0418470650721862</v>
+        <v>0.418470650721862</v>
       </c>
       <c r="AR27" t="n">
         <v>59.8785021236437</v>
@@ -7904,19 +7904,19 @@
         <v>1159</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.697874943700339</v>
+        <v>6.97874943700339</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.0168597915648054</v>
+        <v>0.168597915648054</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.10718010351912</v>
+        <v>1.0718010351912</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.435343903619797</v>
+        <v>4.35343903619797</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.138491144996616</v>
+        <v>1.38491144996616</v>
       </c>
       <c r="AR28" t="n">
         <v>56.2962443181437</v>
@@ -8161,19 +8161,19 @@
         <v>174</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.434966290112516</v>
+        <v>4.34966290112516</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.0174986438551012</v>
+        <v>0.174986438551012</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.27997830168162</v>
+        <v>2.7997830168162</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.137489344575795</v>
+        <v>1.37489344575795</v>
       </c>
       <c r="AR29" t="n">
         <v>57.6686344569509</v>
@@ -8418,19 +8418,19 @@
         <v>1625</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.73573837242216</v>
+        <v>17.3573837242216</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.0202947871237053</v>
+        <v>0.202947871237053</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.138859069793773</v>
+        <v>1.38859069793773</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.930355767618279</v>
+        <v>9.30355767618279</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.646228747886405</v>
+        <v>6.46228747886405</v>
       </c>
       <c r="AR30" t="n">
         <v>44.5475644776378</v>
@@ -8675,19 +8675,19 @@
         <v>1490</v>
       </c>
       <c r="AM31" t="n">
-        <v>2.9513015437882</v>
+        <v>29.513015437882</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.00990369645566511</v>
+        <v>0.0990369645566511</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.4994196433877</v>
+        <v>14.994196433877</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.03988812784484</v>
+        <v>10.3988812784484</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.402090076100004</v>
+        <v>4.02090076100004</v>
       </c>
       <c r="AR31" t="n">
         <v>59.6523163593644</v>
@@ -8932,19 +8932,19 @@
         <v>334</v>
       </c>
       <c r="AM32" t="n">
-        <v>1.39113919305597</v>
+        <v>13.9113919305597</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.0291556118305143</v>
+        <v>0.291556118305143</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.10791324955954</v>
+        <v>11.0791324955954</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.25407033166591</v>
+        <v>2.5407033166591</v>
       </c>
       <c r="AR32"/>
       <c r="AS32" t="s">
@@ -9167,19 +9167,19 @@
         <v>467</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.749630000609977</v>
+        <v>7.49630000609977</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.00642081370972143</v>
+        <v>0.0642081370972143</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.0465508993954804</v>
+        <v>0.465508993954804</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.569847216737777</v>
+        <v>5.69847216737777</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.126811070766998</v>
+        <v>1.26811070766998</v>
       </c>
       <c r="AR33"/>
       <c r="AS33" t="s">
@@ -9402,19 +9402,19 @@
         <v>1312</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.1416289966804</v>
+        <v>11.416289966804</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.00435072026173933</v>
+        <v>0.0435072026173933</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.0670010920307857</v>
+        <v>0.670010920307857</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.791831087636558</v>
+        <v>7.91831087636558</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.278446096751317</v>
+        <v>2.78446096751317</v>
       </c>
       <c r="AR34" t="n">
         <v>64.7229772565185</v>
@@ -9659,19 +9659,19 @@
         <v>789</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.4055377116991</v>
+        <v>14.055377116991</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.00178141661812306</v>
+        <v>0.0178141661812306</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.0338469157443382</v>
+        <v>0.338469157443382</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.30399696446608</v>
+        <v>13.0399696446608</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.0659124148705534</v>
+        <v>0.659124148705534</v>
       </c>
       <c r="AR35" t="n">
         <v>56.2515562603271</v>
@@ -9916,19 +9916,19 @@
         <v>84</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.559220818992204</v>
+        <v>5.59220818992204</v>
       </c>
       <c r="AN36" t="n">
         <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.0599165163205933</v>
+        <v>0.599165163205933</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.479332130564746</v>
+        <v>4.79332130564746</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.0199721721068644</v>
+        <v>0.199721721068644</v>
       </c>
       <c r="AR36" t="n">
         <v>66.826212291541</v>
@@ -10173,19 +10173,19 @@
         <v>1156</v>
       </c>
       <c r="AM37" t="n">
-        <v>1.1246656892323</v>
+        <v>11.246656892323</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.0116747303380515</v>
+        <v>0.116747303380515</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.0836689007560361</v>
+        <v>0.836689007560361</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.816258229468771</v>
+        <v>8.16258229468771</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.213063828669441</v>
+        <v>2.13063828669441</v>
       </c>
       <c r="AR37" t="n">
         <v>58.8664161730974</v>
@@ -10430,19 +10430,19 @@
         <v>219</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.774133341816986</v>
+        <v>7.74133341816986</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.0035348554420867</v>
+        <v>0.035348554420867</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.0141394217683468</v>
+        <v>0.141394217683468</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.696366522091079</v>
+        <v>6.96366522091079</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.0600925425154738</v>
+        <v>0.600925425154738</v>
       </c>
       <c r="AR38" t="n">
         <v>65.0284678167194</v>
@@ -10687,19 +10687,19 @@
         <v>1429</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.31174206506204</v>
+        <v>13.1174206506204</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.0367177624929892</v>
+        <v>0.367177624929892</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.133101889037086</v>
+        <v>1.33101889037086</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.853687977961999</v>
+        <v>8.53687977961999</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.288234435569965</v>
+        <v>2.88234435569965</v>
       </c>
       <c r="AR39" t="n">
         <v>66.9797591454771</v>
@@ -10944,19 +10944,19 @@
         <v>864</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.908482004380482</v>
+        <v>9.08482004380481</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.0010514838013663</v>
+        <v>0.010514838013663</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.0515227062669486</v>
+        <v>0.515227062669486</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.578316090751464</v>
+        <v>5.78316090751464</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.277591723560703</v>
+        <v>2.77591723560703</v>
       </c>
       <c r="AR40" t="n">
         <v>51.3377749939386</v>
@@ -11201,19 +11201,19 @@
         <v>263</v>
       </c>
       <c r="AM41" t="n">
-        <v>1.25487277116942</v>
+        <v>12.5487277116942</v>
       </c>
       <c r="AN41" t="n">
         <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.0190855174322345</v>
+        <v>0.190855174322345</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.877933801882786</v>
+        <v>8.77933801882786</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.357853451854397</v>
+        <v>3.57853451854397</v>
       </c>
       <c r="AR41" t="n">
         <v>53.3466339805293</v>
@@ -11458,19 +11458,19 @@
         <v>3602</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.78775803887177</v>
+        <v>7.8775803887177</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.0332424269596083</v>
+        <v>0.332424269596083</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.08682397041424</v>
+        <v>0.8682397041424</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.375945604891886</v>
+        <v>3.75945604891886</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.291746036606036</v>
+        <v>2.91746036606036</v>
       </c>
       <c r="AR42" t="n">
         <v>64.6870346547511</v>
@@ -11715,19 +11715,19 @@
         <v>2054</v>
       </c>
       <c r="AM43" t="n">
-        <v>1.06988806803946</v>
+        <v>10.6988806803946</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.021356090939444</v>
+        <v>0.21356090939444</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.0630265122847007</v>
+        <v>0.630265122847007</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.410453650250778</v>
+        <v>4.10453650250778</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.575051814564541</v>
+        <v>5.75051814564542</v>
       </c>
       <c r="AR43" t="n">
         <v>50.5395364543481</v>
@@ -11972,19 +11972,19 @@
         <v>796</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.16028558184824</v>
+        <v>11.6028558184824</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.0320681944731924</v>
+        <v>0.320681944731924</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.0349834848798463</v>
+        <v>0.349834848798463</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.956215253382466</v>
+        <v>9.56215253382466</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.137018649112731</v>
+        <v>1.37018649112731</v>
       </c>
       <c r="AR44"/>
       <c r="AS44" t="s">
@@ -12207,19 +12207,19 @@
         <v>9956</v>
       </c>
       <c r="AM45" t="n">
-        <v>1.23448171792837</v>
+        <v>12.3448171792837</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.00967151205287391</v>
+        <v>0.0967151205287391</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.0553012099433559</v>
+        <v>0.553012099433559</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.510730232638303</v>
+        <v>5.10730232638303</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.658778763293834</v>
+        <v>6.58778763293834</v>
       </c>
       <c r="AR45" t="n">
         <v>72.5185833038694</v>
@@ -12464,19 +12464,19 @@
         <v>1155</v>
       </c>
       <c r="AM46" t="n">
-        <v>2.09252777355045</v>
+        <v>20.9252777355045</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.0525396583835178</v>
+        <v>0.525396583835178</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.0307991100868897</v>
+        <v>0.307991100868897</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.24464638998196</v>
+        <v>12.4464638998196</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.764542615098086</v>
+        <v>7.64542615098086</v>
       </c>
       <c r="AR46"/>
       <c r="AS46" t="s">
@@ -12699,19 +12699,19 @@
         <v>100</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.415997603853802</v>
+        <v>4.15997603853802</v>
       </c>
       <c r="AN47" t="n">
         <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.0707195926551463</v>
+        <v>0.707195926551463</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.253758538350819</v>
+        <v>2.53758538350819</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.0915194728478364</v>
+        <v>0.915194728478364</v>
       </c>
       <c r="AR47" t="n">
         <v>59.4648914152003</v>
@@ -12956,19 +12956,19 @@
         <v>2718</v>
       </c>
       <c r="AM48" t="n">
-        <v>1.52269931226428</v>
+        <v>15.2269931226428</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.0117647849733444</v>
+        <v>0.117647849733444</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.0599443805784689</v>
+        <v>0.599443805784689</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.8448236066573</v>
+        <v>8.448236066573</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.606166540055171</v>
+        <v>6.06166540055171</v>
       </c>
       <c r="AR48" t="n">
         <v>64.5673897047235</v>
@@ -13213,19 +13213,19 @@
         <v>1279</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.73644571375927</v>
+        <v>7.3644571375927</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.00978856695379796</v>
+        <v>0.0978856695379796</v>
       </c>
       <c r="AO49" t="n">
-        <v>0.0403058639274034</v>
+        <v>0.403058639274034</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.553917729973744</v>
+        <v>5.53917729973744</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.132433552904325</v>
+        <v>1.32433552904325</v>
       </c>
       <c r="AR49" t="n">
         <v>58.8916648249936</v>
@@ -13470,19 +13470,19 @@
         <v>303</v>
       </c>
       <c r="AM50" t="n">
-        <v>1.72413793103448</v>
+        <v>17.2413793103448</v>
       </c>
       <c r="AN50" t="n">
         <v>0</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.113804483896666</v>
+        <v>1.13804483896666</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.09252304540799</v>
+        <v>10.9252304540799</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.517810401729828</v>
+        <v>5.17810401729828</v>
       </c>
       <c r="AR50" t="n">
         <v>41.3956582439384</v>
@@ -13727,19 +13727,19 @@
         <v>323</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.592009882716061</v>
+        <v>5.92009882716061</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.0293255669456872</v>
+        <v>0.293255669456872</v>
       </c>
       <c r="AO51" t="n">
-        <v>0.0604839818254799</v>
+        <v>0.604839818254799</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.423387872778359</v>
+        <v>4.23387872778359</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.0788124611665344</v>
+        <v>0.788124611665344</v>
       </c>
       <c r="AR51" t="n">
         <v>74.7341847359776</v>
@@ -13984,19 +13984,19 @@
         <v>802</v>
       </c>
       <c r="AM52" t="n">
-        <v>2.09821860717005</v>
+        <v>20.9821860717005</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.00523246535453877</v>
+        <v>0.0523246535453877</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.219763544890628</v>
+        <v>2.19763544890628</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.20085079886665</v>
+        <v>12.0085079886665</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.672371798058232</v>
+        <v>6.72371798058232</v>
       </c>
       <c r="AR52" t="n">
         <v>69.3175069341295</v>
@@ -14241,19 +14241,19 @@
         <v>519</v>
       </c>
       <c r="AM53" t="n">
-        <v>0.408975716771314</v>
+        <v>4.08975716771314</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.00945608593690899</v>
+        <v>0.0945608593690899</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.0638285800741357</v>
+        <v>0.638285800741357</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.270286456363315</v>
+        <v>2.70286456363315</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.0654045943969539</v>
+        <v>0.654045943969539</v>
       </c>
       <c r="AR53" t="n">
         <v>73.9462866905229</v>
@@ -14498,19 +14498,19 @@
         <v>110</v>
       </c>
       <c r="AM54" t="n">
-        <v>0.345747773855811</v>
+        <v>3.45747773855811</v>
       </c>
       <c r="AN54" t="n">
-        <v>0.00628632316101474</v>
+        <v>0.0628632316101474</v>
       </c>
       <c r="AO54" t="n">
-        <v>0.00942948474152211</v>
+        <v>0.0942948474152211</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.289170865406678</v>
+        <v>2.89170865406678</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.0408611005465958</v>
+        <v>0.408611005465958</v>
       </c>
       <c r="AR54" t="n">
         <v>59.8785021236437</v>
@@ -14755,19 +14755,19 @@
         <v>1118</v>
       </c>
       <c r="AM55" t="n">
-        <v>0.663444785727511</v>
+        <v>6.6344478572751</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.00415394767450141</v>
+        <v>0.0415394767450141</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.197609225086996</v>
+        <v>1.97609225086996</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.367327658645196</v>
+        <v>3.67327658645196</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.0943539543208177</v>
+        <v>0.943539543208177</v>
       </c>
       <c r="AR55" t="n">
         <v>56.2962443181437</v>
@@ -15012,19 +15012,19 @@
         <v>150</v>
       </c>
       <c r="AM56" t="n">
-        <v>0.367680402389432</v>
+        <v>3.67680402389432</v>
       </c>
       <c r="AN56" t="n">
         <v>0</v>
       </c>
       <c r="AO56" t="n">
-        <v>0.0392192429215395</v>
+        <v>0.392192429215395</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.230413052164044</v>
+        <v>2.30413052164044</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.0980481073038486</v>
+        <v>0.980481073038486</v>
       </c>
       <c r="AR56" t="n">
         <v>57.6686344569509</v>
@@ -15269,19 +15269,19 @@
         <v>1082</v>
       </c>
       <c r="AM57" t="n">
-        <v>1.13203243764667</v>
+        <v>11.3203243764667</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.0188323326041036</v>
+        <v>0.188323326041036</v>
       </c>
       <c r="AO57" t="n">
-        <v>0.100439107221886</v>
+        <v>1.00439107221886</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.718767361056619</v>
+        <v>7.18767361056619</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.293993636764061</v>
+        <v>2.93993636764061</v>
       </c>
       <c r="AR57" t="n">
         <v>44.5475644776378</v>
@@ -15526,19 +15526,19 @@
         <v>1272</v>
       </c>
       <c r="AM58" t="n">
-        <v>2.48200933485272</v>
+        <v>24.8200933485272</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.00390253040071182</v>
+        <v>0.0390253040071182</v>
       </c>
       <c r="AO58" t="n">
-        <v>1.44003371786266</v>
+        <v>14.4003371786266</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.805872527746991</v>
+        <v>8.05872527746991</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.232200558842353</v>
+        <v>2.32200558842353</v>
       </c>
       <c r="AR58" t="n">
         <v>59.6523163593644</v>
@@ -15783,19 +15783,19 @@
         <v>441</v>
       </c>
       <c r="AM59" t="n">
-        <v>1.77277880062067</v>
+        <v>17.7277880062067</v>
       </c>
       <c r="AN59" t="n">
         <v>0</v>
       </c>
       <c r="AO59" t="n">
-        <v>0.0241194394642269</v>
+        <v>0.241194394642268</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.2260715060982</v>
+        <v>12.260715060982</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.522587855058248</v>
+        <v>5.22587855058248</v>
       </c>
       <c r="AR59"/>
       <c r="AS59" t="s">
@@ -16018,19 +16018,19 @@
         <v>443</v>
       </c>
       <c r="AM60" t="n">
-        <v>0.701237851014658</v>
+        <v>7.01237851014658</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.0158292968626334</v>
+        <v>0.158292968626334</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.0759806249406401</v>
+        <v>0.759806249406401</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.511286288663058</v>
+        <v>5.11286288663058</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.0981416405483268</v>
+        <v>0.981416405483268</v>
       </c>
       <c r="AR60"/>
       <c r="AS60" t="s">
@@ -16253,19 +16253,19 @@
         <v>1697</v>
       </c>
       <c r="AM61" t="n">
-        <v>1.43822700595377</v>
+        <v>14.3822700595377</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.000847511494374642</v>
+        <v>0.00847511494374643</v>
       </c>
       <c r="AO61" t="n">
-        <v>0.04746064368498</v>
+        <v>0.4746064368498</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.05515181049643</v>
+        <v>10.5515181049643</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.334767040277984</v>
+        <v>3.34767040277984</v>
       </c>
       <c r="AR61" t="n">
         <v>64.7229772565185</v>
@@ -16510,19 +16510,19 @@
         <v>703</v>
       </c>
       <c r="AM62" t="n">
-        <v>1.23197599837372</v>
+        <v>12.3197599837372</v>
       </c>
       <c r="AN62" t="n">
-        <v>0.0017524551897208</v>
+        <v>0.017524551897208</v>
       </c>
       <c r="AO62" t="n">
-        <v>0.0315441934149744</v>
+        <v>0.315441934149744</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.1373434181288</v>
+        <v>11.373434181288</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.061335931640228</v>
+        <v>0.61335931640228</v>
       </c>
       <c r="AR62" t="n">
         <v>56.2515562603271</v>
@@ -16767,19 +16767,19 @@
         <v>90</v>
       </c>
       <c r="AM63" t="n">
+        <v>5.78796745876073</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.450175246792501</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>4.75899546609216</v>
+      </c>
+      <c r="AQ63" t="n">
         <v>0.578796745876073</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>0.0450175246792501</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>0.475899546609216</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>0.0578796745876073</v>
       </c>
       <c r="AR63" t="n">
         <v>66.826212291541</v>
@@ -17024,19 +17024,19 @@
         <v>1424</v>
       </c>
       <c r="AM64" t="n">
-        <v>1.37730921752587</v>
+        <v>13.7730921752587</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.00677048070412999</v>
+        <v>0.0677048070412999</v>
       </c>
       <c r="AO64" t="n">
-        <v>0.0909178837411742</v>
+        <v>0.909178837411742</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.903375568236773</v>
+        <v>9.03375568236773</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.376245284843795</v>
+        <v>3.76245284843795</v>
       </c>
       <c r="AR64" t="n">
         <v>58.8664161730974</v>
@@ -17281,19 +17281,19 @@
         <v>153</v>
       </c>
       <c r="AM65" t="n">
-        <v>0.523979780544939</v>
+        <v>5.23979780544939</v>
       </c>
       <c r="AN65" t="n">
-        <v>0.00684940889601227</v>
+        <v>0.0684940889601227</v>
       </c>
       <c r="AO65" t="n">
-        <v>0.023972931136043</v>
+        <v>0.23972931136043</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.417813942656749</v>
+        <v>4.17813942656749</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.075343497856135</v>
+        <v>0.75343497856135</v>
       </c>
       <c r="AR65" t="n">
         <v>65.0284678167194</v>
@@ -17538,19 +17538,19 @@
         <v>1169</v>
       </c>
       <c r="AM66" t="n">
-        <v>1.06172635433687</v>
+        <v>10.6172635433687</v>
       </c>
       <c r="AN66" t="n">
-        <v>0.054494081488633</v>
+        <v>0.54494081488633</v>
       </c>
       <c r="AO66" t="n">
-        <v>0.118070509892038</v>
+        <v>1.18070509892038</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.565830212790306</v>
+        <v>5.65830212790306</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.323331550165889</v>
+        <v>3.23331550165889</v>
       </c>
       <c r="AR66" t="n">
         <v>66.9797591454771</v>
@@ -17795,19 +17795,19 @@
         <v>982</v>
       </c>
       <c r="AM67" t="n">
-        <v>1.01945582652225</v>
+        <v>10.1945582652225</v>
       </c>
       <c r="AN67" t="n">
-        <v>0.00207628477906773</v>
+        <v>0.0207628477906773</v>
       </c>
       <c r="AO67" t="n">
-        <v>0.038411268412753</v>
+        <v>0.38411268412753</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.608351440266844</v>
+        <v>6.08351440266844</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.370616833063589</v>
+        <v>3.70616833063589</v>
       </c>
       <c r="AR67" t="n">
         <v>51.3377749939386</v>
@@ -18052,19 +18052,19 @@
         <v>228</v>
       </c>
       <c r="AM68" t="n">
-        <v>1.06047991367321</v>
+        <v>10.6047991367321</v>
       </c>
       <c r="AN68" t="n">
         <v>0</v>
       </c>
       <c r="AO68" t="n">
-        <v>0.0279073661492951</v>
+        <v>0.279073661492951</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.762801341414066</v>
+        <v>7.62801341414066</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.269771206109853</v>
+        <v>2.69771206109853</v>
       </c>
       <c r="AR68" t="n">
         <v>53.3466339805293</v>
@@ -18309,19 +18309,19 @@
         <v>2659</v>
       </c>
       <c r="AM69" t="n">
-        <v>0.577315433298139</v>
+        <v>5.77315433298139</v>
       </c>
       <c r="AN69" t="n">
-        <v>0.00651352500900495</v>
+        <v>0.0651352500900495</v>
       </c>
       <c r="AO69" t="n">
-        <v>0.0764253601056581</v>
+        <v>0.764253601056581</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.297668092911526</v>
+        <v>2.97668092911526</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.196708455271949</v>
+        <v>1.96708455271949</v>
       </c>
       <c r="AR69" t="n">
         <v>64.6870346547511</v>
@@ -18566,19 +18566,19 @@
         <v>2067</v>
       </c>
       <c r="AM70" t="n">
-        <v>1.06531675005721</v>
+        <v>10.6531675005721</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.00670010534627175</v>
+        <v>0.0670010534627175</v>
       </c>
       <c r="AO70" t="n">
-        <v>0.0685472316195495</v>
+        <v>0.685472316195495</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.414375746030961</v>
+        <v>4.14375746030961</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.575693667060427</v>
+        <v>5.75693667060427</v>
       </c>
       <c r="AR70" t="n">
         <v>50.5395364543481</v>
@@ -18823,19 +18823,19 @@
         <v>536</v>
       </c>
       <c r="AM71" t="n">
-        <v>0.771134257927145</v>
+        <v>7.71134257927145</v>
       </c>
       <c r="AN71" t="n">
-        <v>0.00575473326811302</v>
+        <v>0.0575473326811302</v>
       </c>
       <c r="AO71" t="n">
-        <v>0.0517925994130172</v>
+        <v>0.517925994130172</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.602808309834839</v>
+        <v>6.02808309834839</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.110778615411176</v>
+        <v>1.10778615411176</v>
       </c>
       <c r="AR71"/>
       <c r="AS71" t="s">
@@ -19058,19 +19058,19 @@
         <v>9103</v>
       </c>
       <c r="AM72" t="n">
-        <v>1.11743666436992</v>
+        <v>11.1743666436993</v>
       </c>
       <c r="AN72" t="n">
-        <v>0.00945211723129564</v>
+        <v>0.0945211723129564</v>
       </c>
       <c r="AO72" t="n">
-        <v>0.0421048858484988</v>
+        <v>0.421048858484988</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.463890272948912</v>
+        <v>4.63890272948912</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.601989388341219</v>
+        <v>6.01989388341218</v>
       </c>
       <c r="AR72" t="n">
         <v>72.5185833038694</v>
@@ -19315,19 +19315,19 @@
         <v>1073</v>
       </c>
       <c r="AM73" t="n">
-        <v>1.92562735431723</v>
+        <v>19.2562735431723</v>
       </c>
       <c r="AN73" t="n">
-        <v>0.0466601222854128</v>
+        <v>0.466601222854128</v>
       </c>
       <c r="AO73" t="n">
-        <v>0.0502493624612138</v>
+        <v>0.502493624612138</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.25982330170615</v>
+        <v>12.5982330170615</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.568894567864456</v>
+        <v>5.68894567864456</v>
       </c>
       <c r="AR73"/>
       <c r="AS73" t="s">
@@ -19550,19 +19550,19 @@
         <v>83</v>
       </c>
       <c r="AM74" t="n">
-        <v>0.340197396465226</v>
+        <v>3.40197396465226</v>
       </c>
       <c r="AN74" t="n">
         <v>0</v>
       </c>
       <c r="AO74" t="n">
-        <v>0.0655802210053448</v>
+        <v>0.655802210053448</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.213135718267371</v>
+        <v>2.13135718267371</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.0614814571925107</v>
+        <v>0.614814571925107</v>
       </c>
       <c r="AR74" t="n">
         <v>59.4648914152003</v>
@@ -19807,19 +19807,19 @@
         <v>2675</v>
       </c>
       <c r="AM75" t="n">
-        <v>1.46295977270801</v>
+        <v>14.6295977270801</v>
       </c>
       <c r="AN75" t="n">
-        <v>0.0136725212402617</v>
+        <v>0.136725212402617</v>
       </c>
       <c r="AO75" t="n">
-        <v>0.0891448384865066</v>
+        <v>0.891448384865066</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.810507059122716</v>
+        <v>8.10507059122716</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.549635353858522</v>
+        <v>5.49635353858522</v>
       </c>
       <c r="AR75" t="n">
         <v>64.5673897047235</v>
@@ -20064,19 +20064,19 @@
         <v>1227</v>
       </c>
       <c r="AM76" t="n">
-        <v>0.700579591151571</v>
+        <v>7.00579591151571</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.0119903597507604</v>
+        <v>0.119903597507604</v>
       </c>
       <c r="AO76" t="n">
-        <v>0.0428227133955728</v>
+        <v>0.428227133955728</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.555553335118565</v>
+        <v>5.55553335118565</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.0902131828866734</v>
+        <v>0.902131828866734</v>
       </c>
       <c r="AR76" t="n">
         <v>58.8916648249936</v>
@@ -20321,19 +20321,19 @@
         <v>344</v>
       </c>
       <c r="AM77" t="n">
-        <v>1.8940019600718</v>
+        <v>18.940019600718</v>
       </c>
       <c r="AN77" t="n">
         <v>0</v>
       </c>
       <c r="AO77" t="n">
-        <v>0.115622212678801</v>
+        <v>1.15622212678801</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.26083270016407</v>
+        <v>12.6083270016407</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.517547047228921</v>
+        <v>5.17547047228921</v>
       </c>
       <c r="AR77" t="n">
         <v>41.3956582439384</v>
@@ -20578,19 +20578,19 @@
         <v>275</v>
       </c>
       <c r="AM78" t="n">
-        <v>0.494447800696182</v>
+        <v>4.94447800696183</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.0197779120278473</v>
+        <v>0.197779120278473</v>
       </c>
       <c r="AO78" t="n">
-        <v>0.0467477920658209</v>
+        <v>0.467477920658209</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.357800408503783</v>
+        <v>3.57800408503783</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.0701216880987313</v>
+        <v>0.701216880987313</v>
       </c>
       <c r="AR78" t="n">
         <v>74.7341847359776</v>
@@ -20835,19 +20835,19 @@
         <v>667</v>
       </c>
       <c r="AM79" t="n">
-        <v>1.71668738530752</v>
+        <v>17.1668738530752</v>
       </c>
       <c r="AN79" t="n">
-        <v>0.0128687210292918</v>
+        <v>0.128687210292918</v>
       </c>
       <c r="AO79" t="n">
-        <v>0.120965977675343</v>
+        <v>1.20965977675343</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.965154077196884</v>
+        <v>9.65154077196884</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.617698609406006</v>
+        <v>6.17698609406006</v>
       </c>
       <c r="AR79" t="n">
         <v>69.3175069341295</v>
@@ -21092,19 +21092,19 @@
         <v>453</v>
       </c>
       <c r="AM80" t="n">
-        <v>0.352493796342624</v>
+        <v>3.52493796342624</v>
       </c>
       <c r="AN80" t="n">
-        <v>0.00778132000756344</v>
+        <v>0.0778132000756344</v>
       </c>
       <c r="AO80" t="n">
-        <v>0.0606942960589949</v>
+        <v>0.606942960589949</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.226436412220096</v>
+        <v>2.26436412220096</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.0575817680559695</v>
+        <v>0.575817680559695</v>
       </c>
       <c r="AR80" t="n">
         <v>73.9462866905229</v>
@@ -21349,19 +21349,19 @@
         <v>95</v>
       </c>
       <c r="AM81" t="n">
-        <v>0.2917950308842</v>
+        <v>2.917950308842</v>
       </c>
       <c r="AN81" t="n">
-        <v>0.00307152664088632</v>
+        <v>0.0307152664088632</v>
       </c>
       <c r="AO81" t="n">
-        <v>0.0122861065635453</v>
+        <v>0.122861065635453</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.239579077989133</v>
+        <v>2.39579077989133</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.0368583196906358</v>
+        <v>0.368583196906358</v>
       </c>
       <c r="AR81" t="n">
         <v>59.8785021236437</v>
@@ -21606,19 +21606,19 @@
         <v>829</v>
       </c>
       <c r="AM82" t="n">
-        <v>0.485008328219001</v>
+        <v>4.85008328219001</v>
       </c>
       <c r="AN82" t="n">
-        <v>0.00234020906257661</v>
+        <v>0.0234020906257661</v>
       </c>
       <c r="AO82" t="n">
-        <v>0.135147073363799</v>
+        <v>1.35147073363799</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.289015819228211</v>
+        <v>2.89015819228211</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.0585052265644151</v>
+        <v>0.585052265644151</v>
       </c>
       <c r="AR82" t="n">
         <v>56.2962443181437</v>
@@ -21863,19 +21863,19 @@
         <v>126</v>
       </c>
       <c r="AM83" t="n">
-        <v>0.303043421793151</v>
+        <v>3.03043421793151</v>
       </c>
       <c r="AN83" t="n">
-        <v>0.00240510652216787</v>
+        <v>0.0240510652216787</v>
       </c>
       <c r="AO83" t="n">
-        <v>0.0553174500098609</v>
+        <v>0.553174500098609</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.149116604374408</v>
+        <v>1.49116604374408</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.0962042608867147</v>
+        <v>0.962042608867147</v>
       </c>
       <c r="AR83" t="n">
         <v>58.8968274953729</v>
@@ -22120,19 +22120,19 @@
         <v>866</v>
       </c>
       <c r="AM84" t="n">
-        <v>0.888161403336041</v>
+        <v>8.88161403336041</v>
       </c>
       <c r="AN84" t="n">
-        <v>0.00923031481527063</v>
+        <v>0.0923031481527063</v>
       </c>
       <c r="AO84" t="n">
-        <v>0.0697401563820448</v>
+        <v>0.697401563820448</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.572279518546779</v>
+        <v>5.72279518546779</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.236911413591946</v>
+        <v>2.36911413591946</v>
       </c>
       <c r="AR84" t="n">
         <v>57.525651369499</v>
@@ -22377,19 +22377,19 @@
         <v>1175</v>
       </c>
       <c r="AM85" t="n">
-        <v>2.26028912464292</v>
+        <v>22.6028912464292</v>
       </c>
       <c r="AN85" t="n">
-        <v>0.00192365031884504</v>
+        <v>0.0192365031884504</v>
       </c>
       <c r="AO85" t="n">
-        <v>1.4350431378584</v>
+        <v>14.350431378584</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.682895863189989</v>
+        <v>6.82895863189989</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.140426473275688</v>
+        <v>1.40426473275688</v>
       </c>
       <c r="AR85" t="n">
         <v>53.7799095134292</v>
@@ -22634,19 +22634,19 @@
         <v>322</v>
       </c>
       <c r="AM86" t="n">
-        <v>1.25039803042894</v>
+        <v>12.5039803042894</v>
       </c>
       <c r="AN86" t="n">
         <v>0</v>
       </c>
       <c r="AO86" t="n">
-        <v>0.0194161184849214</v>
+        <v>0.194161184849214</v>
       </c>
       <c r="AP86" t="n">
-        <v>0.873725331821465</v>
+        <v>8.73725331821465</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.357256580122555</v>
+        <v>3.57256580122555</v>
       </c>
       <c r="AR86" t="n">
         <v>41.1442402392431</v>
@@ -22891,19 +22891,19 @@
         <v>506</v>
       </c>
       <c r="AM87" t="n">
-        <v>0.790239758117917</v>
+        <v>7.90239758117917</v>
       </c>
       <c r="AN87" t="n">
-        <v>0.00937043191444171</v>
+        <v>0.0937043191444171</v>
       </c>
       <c r="AO87" t="n">
-        <v>0.0484138982246155</v>
+        <v>0.484138982246155</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.601269381176676</v>
+        <v>6.01269381176676</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.131186046802184</v>
+        <v>1.31186046802184</v>
       </c>
       <c r="AR87" t="n">
         <v>48.1567777479996</v>
@@ -23148,19 +23148,19 @@
         <v>1447</v>
       </c>
       <c r="AM88" t="n">
-        <v>1.19485263759385</v>
+        <v>11.9485263759385</v>
       </c>
       <c r="AN88" t="n">
-        <v>0.0024772342175408</v>
+        <v>0.024772342175408</v>
       </c>
       <c r="AO88" t="n">
-        <v>0.037158513263112</v>
+        <v>0.37158513263112</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.952909429014028</v>
+        <v>9.52909429014028</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.202307461099165</v>
+        <v>2.02307461099165</v>
       </c>
       <c r="AR88" t="n">
         <v>50.8367203234539</v>
@@ -23405,19 +23405,19 @@
         <v>573</v>
       </c>
       <c r="AM89" t="n">
-        <v>0.988536086742748</v>
+        <v>9.88536086742748</v>
       </c>
       <c r="AN89" t="n">
-        <v>0.00172519386866099</v>
+        <v>0.0172519386866099</v>
       </c>
       <c r="AO89" t="n">
-        <v>0.0207023264239319</v>
+        <v>0.207023264239319</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.935055076814257</v>
+        <v>9.35055076814257</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.0310534896358978</v>
+        <v>0.310534896358978</v>
       </c>
       <c r="AR89" t="n">
         <v>49.8251835052734</v>
@@ -23662,19 +23662,19 @@
         <v>112</v>
       </c>
       <c r="AM90" t="n">
-        <v>0.697093989431557</v>
+        <v>6.97093989431557</v>
       </c>
       <c r="AN90" t="n">
         <v>0</v>
       </c>
       <c r="AO90" t="n">
-        <v>0.0684645882477422</v>
+        <v>0.684645882477422</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.56638886641314</v>
+        <v>5.6638886641314</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.0622405347706748</v>
+        <v>0.622405347706747</v>
       </c>
       <c r="AR90" t="n">
         <v>61.51654091938</v>
@@ -23919,19 +23919,19 @@
         <v>1418</v>
       </c>
       <c r="AM91" t="n">
-        <v>1.36380248908381</v>
+        <v>13.6380248908381</v>
       </c>
       <c r="AN91" t="n">
-        <v>0.00865601015638525</v>
+        <v>0.0865601015638525</v>
       </c>
       <c r="AO91" t="n">
-        <v>0.0663627445322869</v>
+        <v>0.663627445322869</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.821359185950334</v>
+        <v>8.21359185950334</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.467424548444803</v>
+        <v>4.67424548444803</v>
       </c>
       <c r="AR91" t="n">
         <v>57.5715492003498</v>
@@ -24176,19 +24176,19 @@
         <v>248</v>
       </c>
       <c r="AM92" t="n">
-        <v>0.823827208886704</v>
+        <v>8.23827208886704</v>
       </c>
       <c r="AN92" t="n">
-        <v>0.0597939103224221</v>
+        <v>0.597939103224221</v>
       </c>
       <c r="AO92" t="n">
-        <v>0.0431844907884159</v>
+        <v>0.431844907884159</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.544788960715401</v>
+        <v>5.44788960715401</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.176059847060465</v>
+        <v>1.76059847060465</v>
       </c>
       <c r="AR92" t="n">
         <v>54.2954812817751</v>
@@ -24433,19 +24433,19 @@
         <v>1159</v>
       </c>
       <c r="AM93" t="n">
-        <v>1.04174531439316</v>
+        <v>10.4174531439316</v>
       </c>
       <c r="AN93" t="n">
-        <v>0.0395485710382219</v>
+        <v>0.395485710382219</v>
       </c>
       <c r="AO93" t="n">
-        <v>0.0952761029557164</v>
+        <v>0.952761029557164</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.561769474974743</v>
+        <v>5.61769474974743</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.345151165424482</v>
+        <v>3.45151165424482</v>
       </c>
       <c r="AR93" t="n">
         <v>61.2953359175568</v>
@@ -24690,19 +24690,19 @@
         <v>932</v>
       </c>
       <c r="AM94" t="n">
-        <v>0.955290948618262</v>
+        <v>9.55290948618262</v>
       </c>
       <c r="AN94" t="n">
-        <v>0.00102499028821702</v>
+        <v>0.0102499028821702</v>
       </c>
       <c r="AO94" t="n">
-        <v>0.052274504699068</v>
+        <v>0.52274504699068</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.513520134396727</v>
+        <v>5.13520134396727</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.38847131923425</v>
+        <v>3.8847131923425</v>
       </c>
       <c r="AR94" t="n">
         <v>39.1454027540661</v>
@@ -24947,19 +24947,19 @@
         <v>234</v>
       </c>
       <c r="AM95" t="n">
-        <v>1.0612629936687</v>
+        <v>10.612629936687</v>
       </c>
       <c r="AN95" t="n">
-        <v>0.00453531193875515</v>
+        <v>0.0453531193875515</v>
       </c>
       <c r="AO95" t="n">
-        <v>0.0544237432650618</v>
+        <v>0.544237432650618</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.716579286323313</v>
+        <v>7.16579286323313</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.285724652141574</v>
+        <v>2.85724652141574</v>
       </c>
       <c r="AR95" t="n">
         <v>46.6655604635216</v>
@@ -25204,19 +25204,19 @@
         <v>2435</v>
       </c>
       <c r="AM96" t="n">
-        <v>0.524950000398833</v>
+        <v>5.24950000398833</v>
       </c>
       <c r="AN96" t="n">
-        <v>0.00711431212039486</v>
+        <v>0.0711431212039486</v>
       </c>
       <c r="AO96" t="n">
-        <v>0.0914081314862854</v>
+        <v>0.914081314862854</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.266247741475383</v>
+        <v>2.66247741475383</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.160179815316769</v>
+        <v>1.60179815316769</v>
       </c>
       <c r="AR96" t="n">
         <v>65.5127471568589</v>
@@ -25461,19 +25461,19 @@
         <v>2021</v>
       </c>
       <c r="AM97" t="n">
-        <v>1.03109404128662</v>
+        <v>10.3109404128662</v>
       </c>
       <c r="AN97" t="n">
-        <v>0.00459171022839167</v>
+        <v>0.0459171022839167</v>
       </c>
       <c r="AO97" t="n">
-        <v>0.0474476723600472</v>
+        <v>0.474476723600472</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.45049779240776</v>
+        <v>4.5049779240776</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.528556866290419</v>
+        <v>5.28556866290419</v>
       </c>
       <c r="AR97" t="n">
         <v>51.5117014422202</v>
@@ -25718,19 +25718,19 @@
         <v>472</v>
       </c>
       <c r="AM98" t="n">
-        <v>0.6706193425373</v>
+        <v>6.706193425373</v>
       </c>
       <c r="AN98" t="n">
-        <v>0.00426241107544894</v>
+        <v>0.0426241107544894</v>
       </c>
       <c r="AO98" t="n">
-        <v>0.045465718138122</v>
+        <v>0.45465718138122</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.561217458267444</v>
+        <v>5.61217458267444</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.0596737550562851</v>
+        <v>0.596737550562851</v>
       </c>
       <c r="AR98" t="n">
         <v>40.9433198892982</v>
@@ -25975,19 +25975,19 @@
         <v>8788</v>
       </c>
       <c r="AM99" t="n">
-        <v>1.06860003667385</v>
+        <v>10.6860003667385</v>
       </c>
       <c r="AN99" t="n">
-        <v>0.00960621334743217</v>
+        <v>0.0960621334743217</v>
       </c>
       <c r="AO99" t="n">
-        <v>0.0342905337212136</v>
+        <v>0.342905337212136</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.469123684739156</v>
+        <v>4.69123684739156</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.555579604866046</v>
+        <v>5.55579604866046</v>
       </c>
       <c r="AR99" t="n">
         <v>65.5835287644169</v>
@@ -26232,19 +26232,19 @@
         <v>851</v>
       </c>
       <c r="AM100" t="n">
-        <v>1.51380659208516</v>
+        <v>15.1380659208516</v>
       </c>
       <c r="AN100" t="n">
-        <v>0.0498079724775375</v>
+        <v>0.498079724775375</v>
       </c>
       <c r="AO100" t="n">
-        <v>0.0355771231982411</v>
+        <v>0.355771231982411</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.992601737230926</v>
+        <v>9.92601737230926</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.435819759178453</v>
+        <v>4.35819759178453</v>
       </c>
       <c r="AR100" t="n">
         <v>58.6637872463125</v>
@@ -26489,19 +26489,19 @@
         <v>84</v>
       </c>
       <c r="AM101" t="n">
-        <v>0.348219726647515</v>
+        <v>3.48219726647515</v>
       </c>
       <c r="AN101" t="n">
-        <v>0.00414547293627994</v>
+        <v>0.0414547293627994</v>
       </c>
       <c r="AO101" t="n">
-        <v>0.0373092564265194</v>
+        <v>0.373092564265194</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.228001011495396</v>
+        <v>2.28001011495396</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.0787639857893188</v>
+        <v>0.787639857893188</v>
       </c>
       <c r="AR101" t="n">
         <v>70.7901878068787</v>
@@ -26746,19 +26746,19 @@
         <v>2585</v>
       </c>
       <c r="AM102" t="n">
-        <v>1.38130846514988</v>
+        <v>13.8130846514988</v>
       </c>
       <c r="AN102" t="n">
-        <v>0.00854968489067625</v>
+        <v>0.0854968489067625</v>
       </c>
       <c r="AO102" t="n">
-        <v>0.0534355305667265</v>
+        <v>0.534355305667266</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.739013387737828</v>
+        <v>7.39013387737828</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.58030986195465</v>
+        <v>5.8030986195465</v>
       </c>
       <c r="AR102" t="n">
         <v>48.7208532168051</v>
@@ -27003,19 +27003,19 @@
         <v>1343</v>
       </c>
       <c r="AM103" t="n">
-        <v>0.760604859262615</v>
+        <v>7.60604859262615</v>
       </c>
       <c r="AN103" t="n">
-        <v>0.00849521436257575</v>
+        <v>0.0849521436257575</v>
       </c>
       <c r="AO103" t="n">
-        <v>0.0356799003228181</v>
+        <v>0.356799003228181</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.611655434105454</v>
+        <v>6.11655434105454</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.104774310471768</v>
+        <v>1.04774310471768</v>
       </c>
       <c r="AR103" t="n">
         <v>70.9672372384604</v>
@@ -27260,19 +27260,19 @@
         <v>382</v>
       </c>
       <c r="AM104" t="n">
-        <v>2.03638844909295</v>
+        <v>20.3638844909295</v>
       </c>
       <c r="AN104" t="n">
         <v>0</v>
       </c>
       <c r="AO104" t="n">
-        <v>0.0852937570300714</v>
+        <v>0.852937570300714</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.49797160784063</v>
+        <v>14.9797160784063</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.453123084222254</v>
+        <v>4.53123084222254</v>
       </c>
       <c r="AR104" t="n">
         <v>44.2302570549258</v>
@@ -27517,19 +27517,19 @@
         <v>294</v>
       </c>
       <c r="AM105" t="n">
-        <v>0.518825970945746</v>
+        <v>5.18825970945746</v>
       </c>
       <c r="AN105" t="n">
-        <v>0.0141177134951223</v>
+        <v>0.141177134951223</v>
       </c>
       <c r="AO105" t="n">
-        <v>0.0600002823542699</v>
+        <v>0.600002823542699</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.382942978555193</v>
+        <v>3.82942978555193</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.0617649965411602</v>
+        <v>0.617649965411602</v>
       </c>
       <c r="AR105" t="n">
         <v>64.2087706931295</v>
@@ -27774,19 +27774,19 @@
         <v>566</v>
       </c>
       <c r="AM106" t="n">
-        <v>1.43401867264597</v>
+        <v>14.3401867264597</v>
       </c>
       <c r="AN106" t="n">
         <v>0</v>
       </c>
       <c r="AO106" t="n">
-        <v>0.116545687176174</v>
+        <v>1.16545687176174</v>
       </c>
       <c r="AP106" t="n">
-        <v>0.912096682248318</v>
+        <v>9.12096682248318</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.405376303221475</v>
+        <v>4.05376303221475</v>
       </c>
       <c r="AR106" t="n">
         <v>52.7194891027287</v>
@@ -28031,19 +28031,19 @@
         <v>483</v>
       </c>
       <c r="AM107" t="n">
-        <v>0.37122748712809</v>
+        <v>3.7122748712809</v>
       </c>
       <c r="AN107" t="n">
-        <v>0.00461152157923094</v>
+        <v>0.0461152157923094</v>
       </c>
       <c r="AO107" t="n">
-        <v>0.0422722811429503</v>
+        <v>0.422722811429503</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.266699664665523</v>
+        <v>2.66699664665523</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.0576440197403867</v>
+        <v>0.576440197403867</v>
       </c>
       <c r="AR107" t="n">
         <v>71.0185118060531</v>
@@ -28288,19 +28288,19 @@
         <v>74</v>
       </c>
       <c r="AM108" t="n">
-        <v>0.222329714967297</v>
+        <v>2.22329714967297</v>
       </c>
       <c r="AN108" t="n">
-        <v>0.00901336682299851</v>
+        <v>0.0901336682299851</v>
       </c>
       <c r="AO108" t="n">
-        <v>0.00901336682299851</v>
+        <v>0.0901336682299851</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.189280703282969</v>
+        <v>1.89280703282969</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.0150222780383308</v>
+        <v>0.150222780383308</v>
       </c>
       <c r="AR108" t="n">
         <v>74.1717153247843</v>
@@ -28545,19 +28545,19 @@
         <v>689</v>
       </c>
       <c r="AM109" t="n">
-        <v>0.397573015813481</v>
+        <v>3.97573015813481</v>
       </c>
       <c r="AN109" t="n">
-        <v>0.00173108715158265</v>
+        <v>0.0173108715158265</v>
       </c>
       <c r="AO109" t="n">
-        <v>0.0888624737812425</v>
+        <v>0.888624737812425</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.253315753181594</v>
+        <v>2.53315753181594</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.053663701699062</v>
+        <v>0.53663701699062</v>
       </c>
       <c r="AR109" t="n">
         <v>48.2221324548186</v>
@@ -28802,19 +28802,19 @@
         <v>130</v>
       </c>
       <c r="AM110" t="n">
-        <v>0.306873735621195</v>
+        <v>3.06873735621195</v>
       </c>
       <c r="AN110" t="n">
         <v>0</v>
       </c>
       <c r="AO110" t="n">
-        <v>0.0448507767446362</v>
+        <v>0.448507767446362</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.174681972584373</v>
+        <v>1.74681972584373</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.0873409862921863</v>
+        <v>0.873409862921863</v>
       </c>
       <c r="AR110" t="n">
         <v>58.8968274953729</v>
@@ -29059,19 +29059,19 @@
         <v>662</v>
       </c>
       <c r="AM111" t="n">
-        <v>0.665908885155865</v>
+        <v>6.65908885155865</v>
       </c>
       <c r="AN111" t="n">
-        <v>0.00704133262249404</v>
+        <v>0.0704133262249404</v>
       </c>
       <c r="AO111" t="n">
-        <v>0.0502952330178146</v>
+        <v>0.502952330178146</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.467745667065676</v>
+        <v>4.67745667065676</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.140826652449881</v>
+        <v>1.40826652449881</v>
       </c>
       <c r="AR111" t="n">
         <v>57.525651369499</v>
@@ -29316,19 +29316,19 @@
         <v>824</v>
       </c>
       <c r="AM112" t="n">
-        <v>1.56123587735204</v>
+        <v>15.6123587735204</v>
       </c>
       <c r="AN112" t="n">
-        <v>0.00378940746930106</v>
+        <v>0.0378940746930106</v>
       </c>
       <c r="AO112" t="n">
-        <v>0.858300791796691</v>
+        <v>8.58300791796691</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.585463454007014</v>
+        <v>5.85463454007014</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.113682224079032</v>
+        <v>1.13682224079032</v>
       </c>
       <c r="AR112" t="n">
         <v>53.7799095134292</v>
@@ -29573,19 +29573,19 @@
         <v>265</v>
       </c>
       <c r="AM113" t="n">
-        <v>0.994614070974159</v>
+        <v>9.94614070974159</v>
       </c>
       <c r="AN113" t="n">
         <v>0</v>
       </c>
       <c r="AO113" t="n">
-        <v>0.015013042580742</v>
+        <v>0.15013042580742</v>
       </c>
       <c r="AP113" t="n">
-        <v>0.735639086456359</v>
+        <v>7.35639086456359</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.243961941937058</v>
+        <v>2.43961941937058</v>
       </c>
       <c r="AR113" t="n">
         <v>41.1442402392431</v>
@@ -29830,19 +29830,19 @@
         <v>371</v>
       </c>
       <c r="AM114" t="n">
-        <v>0.571757051028161</v>
+        <v>5.71757051028161</v>
       </c>
       <c r="AN114" t="n">
-        <v>0.00308224825352108</v>
+        <v>0.0308224825352108</v>
       </c>
       <c r="AO114" t="n">
-        <v>0.0601038409436611</v>
+        <v>0.601038409436611</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.429973631366191</v>
+        <v>4.29973631366191</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.0785973304647876</v>
+        <v>0.785973304647876</v>
       </c>
       <c r="AR114" t="n">
         <v>48.1567777479996</v>
@@ -30087,19 +30087,19 @@
         <v>1096</v>
       </c>
       <c r="AM115" t="n">
-        <v>0.881781004538437</v>
+        <v>8.81781004538437</v>
       </c>
       <c r="AN115" t="n">
         <v>0</v>
       </c>
       <c r="AO115" t="n">
-        <v>0.0281590649259537</v>
+        <v>0.281590649259537</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.658922119267317</v>
+        <v>6.58922119267317</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.194699820345166</v>
+        <v>1.94699820345166</v>
       </c>
       <c r="AR115" t="n">
         <v>50.8367203234539</v>
@@ -30344,19 +30344,19 @@
         <v>600</v>
       </c>
       <c r="AM116" t="n">
-        <v>1.01951348816345</v>
+        <v>10.1951348816345</v>
       </c>
       <c r="AN116" t="n">
-        <v>0.00169918914693908</v>
+        <v>0.0169918914693908</v>
       </c>
       <c r="AO116" t="n">
-        <v>0.0373821612326598</v>
+        <v>0.373821612326598</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.953245111432824</v>
+        <v>9.53245111432824</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.0271870263510253</v>
+        <v>0.271870263510253</v>
       </c>
       <c r="AR116" t="n">
         <v>49.8251835052734</v>
@@ -30601,19 +30601,19 @@
         <v>145</v>
       </c>
       <c r="AM117" t="n">
-        <v>0.874036299631699</v>
+        <v>8.74036299631699</v>
       </c>
       <c r="AN117" t="n">
         <v>0</v>
       </c>
       <c r="AO117" t="n">
-        <v>0.0783618751393937</v>
+        <v>0.783618751393937</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.747451732098832</v>
+        <v>7.47451732098832</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.0482226923934731</v>
+        <v>0.482226923934731</v>
       </c>
       <c r="AR117" t="n">
         <v>61.51654091938</v>
@@ -30858,19 +30858,19 @@
         <v>1509</v>
       </c>
       <c r="AM118" t="n">
-        <v>1.44340586392002</v>
+        <v>14.4340586392002</v>
       </c>
       <c r="AN118" t="n">
-        <v>0.00286959416286286</v>
+        <v>0.0286959416286286</v>
       </c>
       <c r="AO118" t="n">
-        <v>0.0545222890943943</v>
+        <v>0.545222890943943</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.885748064937003</v>
+        <v>8.85748064937003</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.500265915725759</v>
+        <v>5.00265915725759</v>
       </c>
       <c r="AR118" t="n">
         <v>57.5715492003498</v>
@@ -31115,19 +31115,19 @@
         <v>167</v>
       </c>
       <c r="AM119" t="n">
-        <v>0.538588060760473</v>
+        <v>5.38588060760473</v>
       </c>
       <c r="AN119" t="n">
-        <v>0.0258006256651724</v>
+        <v>0.258006256651724</v>
       </c>
       <c r="AO119" t="n">
-        <v>0.0774018769955171</v>
+        <v>0.774018769955171</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.367658915728706</v>
+        <v>3.67658915728706</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.0677266423710775</v>
+        <v>0.677266423710775</v>
       </c>
       <c r="AR119" t="n">
         <v>54.2954812817751</v>
@@ -31372,19 +31372,19 @@
         <v>1096</v>
       </c>
       <c r="AM120" t="n">
-        <v>0.975053401077007</v>
+        <v>9.75053401077007</v>
       </c>
       <c r="AN120" t="n">
-        <v>0.0364755378140121</v>
+        <v>0.364755378140121</v>
       </c>
       <c r="AO120" t="n">
-        <v>0.058716719407922</v>
+        <v>0.587167194079219</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.51065752939617</v>
+        <v>5.1065752939617</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.369203614458903</v>
+        <v>3.69203614458903</v>
       </c>
       <c r="AR120" t="n">
         <v>61.2953359175568</v>
@@ -31629,19 +31629,19 @@
         <v>1018</v>
       </c>
       <c r="AM121" t="n">
-        <v>1.03021630494403</v>
+        <v>10.3021630494403</v>
       </c>
       <c r="AN121" t="n">
-        <v>0.00607200179731253</v>
+        <v>0.0607200179731253</v>
       </c>
       <c r="AO121" t="n">
-        <v>0.0556600164753649</v>
+        <v>0.556600164753649</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.593032175537524</v>
+        <v>5.93032175537524</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.375452111133825</v>
+        <v>3.75452111133825</v>
       </c>
       <c r="AR121" t="n">
         <v>39.1454027540661</v>
@@ -31886,19 +31886,19 @@
         <v>183</v>
       </c>
       <c r="AM122" t="n">
-        <v>0.809097259680429</v>
+        <v>8.09097259680429</v>
       </c>
       <c r="AN122" t="n">
         <v>0</v>
       </c>
       <c r="AO122" t="n">
-        <v>0.0176851860039438</v>
+        <v>0.176851860039438</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.592453731132117</v>
+        <v>5.92453731132117</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.198958342544368</v>
+        <v>1.98958342544368</v>
       </c>
       <c r="AR122" t="n">
         <v>46.6655604635216</v>
@@ -32143,19 +32143,19 @@
         <v>2246</v>
       </c>
       <c r="AM123" t="n">
-        <v>0.480783227130045</v>
+        <v>4.80783227130045</v>
       </c>
       <c r="AN123" t="n">
-        <v>0.00684998364566405</v>
+        <v>0.0684998364566405</v>
       </c>
       <c r="AO123" t="n">
-        <v>0.0901200973382676</v>
+        <v>0.901200973382676</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.245957225277125</v>
+        <v>2.45957225277125</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.137855920868989</v>
+        <v>1.37855920868989</v>
       </c>
       <c r="AR123" t="n">
         <v>65.5127471568589</v>
@@ -32400,19 +32400,19 @@
         <v>3025</v>
       </c>
       <c r="AM124" t="n">
-        <v>1.52821694719341</v>
+        <v>15.2821694719341</v>
       </c>
       <c r="AN124" t="n">
-        <v>0.00707273959031661</v>
+        <v>0.0707273959031661</v>
       </c>
       <c r="AO124" t="n">
-        <v>0.061633873572759</v>
+        <v>0.61633873572759</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.552178883729718</v>
+        <v>5.52178883729718</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.907331450300617</v>
+        <v>9.07331450300617</v>
       </c>
       <c r="AR124" t="n">
         <v>51.5117014422202</v>
@@ -32657,19 +32657,19 @@
         <v>640</v>
       </c>
       <c r="AM125" t="n">
-        <v>0.897917952747068</v>
+        <v>8.97917952747068</v>
       </c>
       <c r="AN125" t="n">
         <v>0</v>
       </c>
       <c r="AO125" t="n">
-        <v>0.033671923228015</v>
+        <v>0.33671923228015</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.725349346203491</v>
+        <v>7.25349346203491</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.138896683315562</v>
+        <v>1.38896683315562</v>
       </c>
       <c r="AR125" t="n">
         <v>40.9433198892982</v>
@@ -32914,19 +32914,19 @@
         <v>8048</v>
       </c>
       <c r="AM126" t="n">
-        <v>0.969603157860623</v>
+        <v>9.69603157860623</v>
       </c>
       <c r="AN126" t="n">
-        <v>0.0134934833101876</v>
+        <v>0.134934833101876</v>
       </c>
       <c r="AO126" t="n">
-        <v>0.0298784273297011</v>
+        <v>0.298784273297011</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.436731044637768</v>
+        <v>4.36731044637768</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.489500202582966</v>
+        <v>4.89500202582966</v>
       </c>
       <c r="AR126" t="n">
         <v>65.5835287644169</v>
@@ -33171,19 +33171,19 @@
         <v>817</v>
       </c>
       <c r="AM127" t="n">
-        <v>1.4407925946435</v>
+        <v>14.407925946435</v>
       </c>
       <c r="AN127" t="n">
-        <v>0.0670136090531859</v>
+        <v>0.670136090531859</v>
       </c>
       <c r="AO127" t="n">
-        <v>0.10757447769064</v>
+        <v>1.0757447769064</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.954062170994041</v>
+        <v>9.54062170994041</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.312142336905629</v>
+        <v>3.12142336905629</v>
       </c>
       <c r="AR127" t="n">
         <v>58.6637872463125</v>
@@ -33428,19 +33428,19 @@
         <v>88</v>
       </c>
       <c r="AM128" t="n">
-        <v>0.359763700660248</v>
+        <v>3.59763700660248</v>
       </c>
       <c r="AN128" t="n">
         <v>0</v>
       </c>
       <c r="AO128" t="n">
-        <v>0.0694998058093661</v>
+        <v>0.694998058093661</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.237116984526073</v>
+        <v>2.37116984526073</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.0531469103248094</v>
+        <v>0.531469103248094</v>
       </c>
       <c r="AR128" t="n">
         <v>70.7901878068787</v>
@@ -33685,19 +33685,19 @@
         <v>2172</v>
       </c>
       <c r="AM129" t="n">
-        <v>1.13465929660527</v>
+        <v>11.3465929660527</v>
       </c>
       <c r="AN129" t="n">
-        <v>0.00835844785712905</v>
+        <v>0.0835844785712905</v>
       </c>
       <c r="AO129" t="n">
-        <v>0.0370906123660102</v>
+        <v>0.370906123660102</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.666586216606042</v>
+        <v>6.66586216606042</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.422624019776088</v>
+        <v>4.22624019776088</v>
       </c>
       <c r="AR129" t="n">
         <v>48.7208532168051</v>
@@ -33942,19 +33942,19 @@
         <v>1274</v>
       </c>
       <c r="AM130" t="n">
-        <v>0.715871098249656</v>
+        <v>7.15871098249656</v>
       </c>
       <c r="AN130" t="n">
-        <v>0.00449526592307476</v>
+        <v>0.0449526592307476</v>
       </c>
       <c r="AO130" t="n">
-        <v>0.0410193015480572</v>
+        <v>0.410193015480572</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.58326075351895</v>
+        <v>5.8326075351895</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.0870957772595735</v>
+        <v>0.870957772595735</v>
       </c>
       <c r="AR130" t="n">
         <v>70.9672372384604</v>
@@ -34199,19 +34199,19 @@
         <v>392</v>
       </c>
       <c r="AM131" t="n">
-        <v>2.02397794277099</v>
+        <v>20.2397794277099</v>
       </c>
       <c r="AN131" t="n">
         <v>0</v>
       </c>
       <c r="AO131" t="n">
-        <v>0.0361424632637677</v>
+        <v>0.361424632637677</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.68320614628404</v>
+        <v>16.8320614628404</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.304629333223185</v>
+        <v>3.04629333223185</v>
       </c>
       <c r="AR131" t="n">
         <v>44.2302570549258</v>
@@ -34456,19 +34456,19 @@
         <v>258</v>
       </c>
       <c r="AM132" t="n">
-        <v>0.447121783496007</v>
+        <v>4.47121783496007</v>
       </c>
       <c r="AN132" t="n">
-        <v>0.0155972715173026</v>
+        <v>0.155972715173026</v>
       </c>
       <c r="AO132" t="n">
-        <v>0.0225293921916593</v>
+        <v>0.225293921916593</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.346606033717835</v>
+        <v>3.46606033717835</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.0623890860692103</v>
+        <v>0.623890860692103</v>
       </c>
       <c r="AR132" t="n">
         <v>64.2087706931295</v>
@@ -34713,19 +34713,19 @@
         <v>459</v>
       </c>
       <c r="AM133" t="n">
-        <v>1.14450140631545</v>
+        <v>11.4450140631545</v>
       </c>
       <c r="AN133" t="n">
-        <v>0.00249346711615567</v>
+        <v>0.0249346711615567</v>
       </c>
       <c r="AO133" t="n">
-        <v>0.114699487343161</v>
+        <v>1.14699487343161</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.733079332149768</v>
+        <v>7.33079332149768</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.294229119706369</v>
+        <v>2.94229119706369</v>
       </c>
       <c r="AR133" t="n">
         <v>52.7194891027287</v>
@@ -34970,19 +34970,19 @@
         <v>510</v>
       </c>
       <c r="AM134" t="n">
-        <v>0.387259614289424</v>
+        <v>3.87259614289424</v>
       </c>
       <c r="AN134" t="n">
-        <v>0.00607466061630469</v>
+        <v>0.0607466061630469</v>
       </c>
       <c r="AO134" t="n">
-        <v>0.0888419115134561</v>
+        <v>0.888419115134561</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.243745757229226</v>
+        <v>2.43745757229226</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.0485972849304375</v>
+        <v>0.485972849304375</v>
       </c>
       <c r="AR134" t="n">
         <v>71.0185118060531</v>
@@ -35227,19 +35227,19 @@
         <v>103</v>
       </c>
       <c r="AM135" t="n">
-        <v>0.302869022379962</v>
+        <v>3.02869022379962</v>
       </c>
       <c r="AN135" t="n">
-        <v>0.0147023797271826</v>
+        <v>0.147023797271826</v>
       </c>
       <c r="AO135" t="n">
-        <v>0.0294047594543653</v>
+        <v>0.294047594543653</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.229357123744049</v>
+        <v>2.29357123744049</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.0294047594543653</v>
+        <v>0.294047594543653</v>
       </c>
       <c r="AR135" t="n">
         <v>74.1717153247843</v>
@@ -35484,19 +35484,19 @@
         <v>784</v>
       </c>
       <c r="AM136" t="n">
-        <v>0.446334026365589</v>
+        <v>4.46334026365589</v>
       </c>
       <c r="AN136" t="n">
-        <v>0.00569303605058149</v>
+        <v>0.0569303605058149</v>
       </c>
       <c r="AO136" t="n">
-        <v>0.0666085217918034</v>
+        <v>0.666085217918034</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.329626787328668</v>
+        <v>3.29626787328668</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.0444056811945356</v>
+        <v>0.444056811945356</v>
       </c>
       <c r="AR136" t="n">
         <v>48.2221324548186</v>
@@ -35741,19 +35741,19 @@
         <v>189</v>
       </c>
       <c r="AM137" t="n">
-        <v>0.437902424218553</v>
+        <v>4.37902424218553</v>
       </c>
       <c r="AN137" t="n">
         <v>0</v>
       </c>
       <c r="AO137" t="n">
-        <v>0.0440219368262037</v>
+        <v>0.440219368262037</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.254863844783285</v>
+        <v>2.54863844783285</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.139016642609064</v>
+        <v>1.39016642609064</v>
       </c>
       <c r="AR137" t="n">
         <v>58.8968274953729</v>
@@ -35998,19 +35998,19 @@
         <v>581</v>
       </c>
       <c r="AM138" t="n">
-        <v>0.573470334507911</v>
+        <v>5.73470334507911</v>
       </c>
       <c r="AN138" t="n">
-        <v>0.00493520081332109</v>
+        <v>0.0493520081332109</v>
       </c>
       <c r="AO138" t="n">
-        <v>0.0562612892718605</v>
+        <v>0.562612892718605</v>
       </c>
       <c r="AP138" t="n">
-        <v>0.390867904415031</v>
+        <v>3.90867904415031</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.121405940007699</v>
+        <v>1.21405940007699</v>
       </c>
       <c r="AR138" t="n">
         <v>57.525651369499</v>
@@ -36255,19 +36255,19 @@
         <v>924</v>
       </c>
       <c r="AM139" t="n">
-        <v>1.72389024565436</v>
+        <v>17.2389024565436</v>
       </c>
       <c r="AN139" t="n">
         <v>0</v>
       </c>
       <c r="AO139" t="n">
-        <v>0.787317839465519</v>
+        <v>7.87317839465519</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.830228527398474</v>
+        <v>8.30228527398474</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.106343878790366</v>
+        <v>1.06343878790366</v>
       </c>
       <c r="AR139" t="n">
         <v>53.7799095134292</v>
@@ -36512,19 +36512,19 @@
         <v>209</v>
       </c>
       <c r="AM140" t="n">
-        <v>0.758617936051049</v>
+        <v>7.58617936051049</v>
       </c>
       <c r="AN140" t="n">
         <v>0</v>
       </c>
       <c r="AO140" t="n">
-        <v>0.0217785053411784</v>
+        <v>0.217785053411784</v>
       </c>
       <c r="AP140" t="n">
-        <v>0.562611387980443</v>
+        <v>5.62611387980443</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.174228042729427</v>
+        <v>1.74228042729427</v>
       </c>
       <c r="AR140" t="n">
         <v>41.1442402392431</v>
@@ -36769,19 +36769,19 @@
         <v>426</v>
       </c>
       <c r="AM141" t="n">
-        <v>0.647513835668284</v>
+        <v>6.47513835668284</v>
       </c>
       <c r="AN141" t="n">
-        <v>0.00455995658921327</v>
+        <v>0.0455995658921327</v>
       </c>
       <c r="AO141" t="n">
-        <v>0.056239464600297</v>
+        <v>0.56239464600297</v>
       </c>
       <c r="AP141" t="n">
-        <v>0.503115210343198</v>
+        <v>5.03115210343198</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.0835992041355766</v>
+        <v>0.835992041355766</v>
       </c>
       <c r="AR141" t="n">
         <v>48.1567777479996</v>
@@ -37026,19 +37026,19 @@
         <v>1477</v>
       </c>
       <c r="AM142" t="n">
-        <v>1.15781840986145</v>
+        <v>11.5781840986145</v>
       </c>
       <c r="AN142" t="n">
-        <v>0.00156779744057068</v>
+        <v>0.0156779744057068</v>
       </c>
       <c r="AO142" t="n">
-        <v>0.0235169616085602</v>
+        <v>0.235169616085602</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.827797048621318</v>
+        <v>8.27797048621318</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.304936602190997</v>
+        <v>3.04936602190997</v>
       </c>
       <c r="AR142" t="n">
         <v>50.8367203234539</v>
@@ -37283,19 +37283,19 @@
         <v>761</v>
       </c>
       <c r="AM143" t="n">
-        <v>1.27408156465922</v>
+        <v>12.7408156465922</v>
       </c>
       <c r="AN143" t="n">
         <v>0</v>
       </c>
       <c r="AO143" t="n">
-        <v>0.0351586239919102</v>
+        <v>0.351586239919102</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.20878697724567</v>
+        <v>12.0878697724567</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.0301359634216373</v>
+        <v>0.301359634216373</v>
       </c>
       <c r="AR143" t="n">
         <v>49.8251835052734</v>
@@ -37540,19 +37540,19 @@
         <v>78</v>
       </c>
       <c r="AM144" t="n">
-        <v>0.455727264760013</v>
+        <v>4.55727264760013</v>
       </c>
       <c r="AN144" t="n">
-        <v>0.00584265724051298</v>
+        <v>0.0584265724051298</v>
       </c>
       <c r="AO144" t="n">
-        <v>0.011685314481026</v>
+        <v>0.11685314481026</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.426513978557448</v>
+        <v>4.26513978557448</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.011685314481026</v>
+        <v>0.11685314481026</v>
       </c>
       <c r="AR144" t="n">
         <v>61.51654091938</v>
@@ -37797,19 +37797,19 @@
         <v>1487</v>
       </c>
       <c r="AM145" t="n">
-        <v>1.41482012184389</v>
+        <v>14.1482012184389</v>
       </c>
       <c r="AN145" t="n">
-        <v>0.00666021577196182</v>
+        <v>0.0666021577196182</v>
       </c>
       <c r="AO145" t="n">
-        <v>0.0761167516795637</v>
+        <v>0.761167516795637</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.835381349683212</v>
+        <v>8.35381349683212</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.496661804709153</v>
+        <v>4.96661804709153</v>
       </c>
       <c r="AR145" t="n">
         <v>57.5715492003498</v>
@@ -38054,19 +38054,19 @@
         <v>135</v>
       </c>
       <c r="AM146" t="n">
-        <v>0.423064869946725</v>
+        <v>4.23064869946725</v>
       </c>
       <c r="AN146" t="n">
-        <v>0.028204324663115</v>
+        <v>0.28204324663115</v>
       </c>
       <c r="AO146" t="n">
-        <v>0.0376057662174867</v>
+        <v>0.376057662174867</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.313381385145722</v>
+        <v>3.13381385145722</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.0438733939204011</v>
+        <v>0.438733939204011</v>
       </c>
       <c r="AR146" t="n">
         <v>54.2954812817751</v>
@@ -38311,19 +38311,19 @@
         <v>867</v>
       </c>
       <c r="AM147" t="n">
-        <v>0.763433389776332</v>
+        <v>7.63433389776332</v>
       </c>
       <c r="AN147" t="n">
-        <v>0.0396245704036159</v>
+        <v>0.396245704036159</v>
       </c>
       <c r="AO147" t="n">
-        <v>0.0281774722870157</v>
+        <v>0.281774722870157</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.39448461201822</v>
+        <v>3.9448461201822</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.301146735067481</v>
+        <v>3.01146735067481</v>
       </c>
       <c r="AR147" t="n">
         <v>61.2953359175568</v>
@@ -38568,19 +38568,19 @@
         <v>814</v>
       </c>
       <c r="AM148" t="n">
-        <v>0.813214434855929</v>
+        <v>8.13214434855929</v>
       </c>
       <c r="AN148" t="n">
-        <v>0.00199806986451088</v>
+        <v>0.0199806986451088</v>
       </c>
       <c r="AO148" t="n">
-        <v>0.0649372705966037</v>
+        <v>0.649372705966037</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.558460527130792</v>
+        <v>5.58460527130792</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.187818567264023</v>
+        <v>1.87818567264023</v>
       </c>
       <c r="AR148" t="n">
         <v>39.1454027540661</v>
@@ -38825,19 +38825,19 @@
         <v>189</v>
       </c>
       <c r="AM149" t="n">
-        <v>0.814409445425949</v>
+        <v>8.14409445425949</v>
       </c>
       <c r="AN149" t="n">
         <v>0</v>
       </c>
       <c r="AO149" t="n">
-        <v>0.00861808936958676</v>
+        <v>0.0861808936958676</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.577411987762313</v>
+        <v>5.77411987762313</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.228379368294049</v>
+        <v>2.28379368294049</v>
       </c>
       <c r="AR149" t="n">
         <v>46.6655604635216</v>
@@ -39082,19 +39082,19 @@
         <v>2725</v>
       </c>
       <c r="AM150" t="n">
-        <v>0.579132321640528</v>
+        <v>5.79132321640528</v>
       </c>
       <c r="AN150" t="n">
-        <v>0.00892607615005584</v>
+        <v>0.0892607615005584</v>
       </c>
       <c r="AO150" t="n">
-        <v>0.0820348903314656</v>
+        <v>0.820348903314656</v>
       </c>
       <c r="AP150" t="n">
-        <v>0.322188843892492</v>
+        <v>3.22188843892492</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.165982511266515</v>
+        <v>1.65982511266515</v>
       </c>
       <c r="AR150" t="n">
         <v>65.5127471568589</v>
@@ -39339,19 +39339,19 @@
         <v>3135</v>
       </c>
       <c r="AM151" t="n">
-        <v>1.56857996730749</v>
+        <v>15.6857996730749</v>
       </c>
       <c r="AN151" t="n">
-        <v>0.00550378935897365</v>
+        <v>0.0550378935897365</v>
       </c>
       <c r="AO151" t="n">
-        <v>0.0470323817948658</v>
+        <v>0.470323817948658</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.590906839358899</v>
+        <v>5.90906839358899</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.925136956794753</v>
+        <v>9.25136956794753</v>
       </c>
       <c r="AR151" t="n">
         <v>51.5117014422202</v>
@@ -39596,19 +39596,19 @@
         <v>568</v>
       </c>
       <c r="AM152" t="n">
-        <v>0.786665466355509</v>
+        <v>7.86665466355509</v>
       </c>
       <c r="AN152" t="n">
-        <v>0.00276994882519545</v>
+        <v>0.0276994882519545</v>
       </c>
       <c r="AO152" t="n">
-        <v>0.0443191812031273</v>
+        <v>0.443191812031273</v>
       </c>
       <c r="AP152" t="n">
-        <v>0.646783050683139</v>
+        <v>6.46783050683139</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.0927932856440477</v>
+        <v>0.927932856440477</v>
       </c>
       <c r="AR152" t="n">
         <v>40.9433198892982</v>
@@ -39853,19 +39853,19 @@
         <v>6881</v>
       </c>
       <c r="AM153" t="n">
-        <v>0.821406956353579</v>
+        <v>8.21406956353579</v>
       </c>
       <c r="AN153" t="n">
-        <v>0.00990797520379989</v>
+        <v>0.0990797520379989</v>
       </c>
       <c r="AO153" t="n">
-        <v>0.025307117388019</v>
+        <v>0.25307117388019</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.423655469858865</v>
+        <v>4.23655469858865</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.362536393902895</v>
+        <v>3.62536393902895</v>
       </c>
       <c r="AR153" t="n">
         <v>65.5835287644169</v>
@@ -40110,19 +40110,19 @@
         <v>850</v>
       </c>
       <c r="AM154" t="n">
-        <v>1.48585293202485</v>
+        <v>14.8585293202485</v>
       </c>
       <c r="AN154" t="n">
-        <v>0.0996395495593135</v>
+        <v>0.996395495593135</v>
       </c>
       <c r="AO154" t="n">
-        <v>0.104883736378225</v>
+        <v>1.04883736378225</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.964930374679668</v>
+        <v>9.64930374679668</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.316399271407645</v>
+        <v>3.16399271407645</v>
       </c>
       <c r="AR154" t="n">
         <v>58.6637872463125</v>
@@ -40367,19 +40367,19 @@
         <v>136</v>
       </c>
       <c r="AM155" t="n">
-        <v>0.548336243009721</v>
+        <v>5.48336243009721</v>
       </c>
       <c r="AN155" t="n">
         <v>0</v>
       </c>
       <c r="AO155" t="n">
-        <v>0.104828987634211</v>
+        <v>1.04828987634211</v>
       </c>
       <c r="AP155" t="n">
-        <v>0.383028993278849</v>
+        <v>3.83028993278849</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.0604782620966604</v>
+        <v>0.604782620966604</v>
       </c>
       <c r="AR155" t="n">
         <v>70.7901878068787</v>
@@ -40624,19 +40624,19 @@
         <v>1763</v>
       </c>
       <c r="AM156" t="n">
-        <v>0.900753608379103</v>
+        <v>9.00753608379103</v>
       </c>
       <c r="AN156" t="n">
-        <v>0.0183931536594712</v>
+        <v>0.183931536594712</v>
       </c>
       <c r="AO156" t="n">
-        <v>0.0393409119938689</v>
+        <v>0.393409119938689</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.55026184697918</v>
+        <v>5.5026184697918</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.292757695746583</v>
+        <v>2.92757695746583</v>
       </c>
       <c r="AR156" t="n">
         <v>48.7208532168051</v>
@@ -40881,19 +40881,19 @@
         <v>1246</v>
       </c>
       <c r="AM157" t="n">
-        <v>0.694784045394045</v>
+        <v>6.94784045394045</v>
       </c>
       <c r="AN157" t="n">
-        <v>0.0105946202748691</v>
+        <v>0.105946202748691</v>
       </c>
       <c r="AO157" t="n">
-        <v>0.0373599767587488</v>
+        <v>0.373599767587488</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.572667106436343</v>
+        <v>5.72667106436343</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.0741623419240834</v>
+        <v>0.741623419240834</v>
       </c>
       <c r="AR157" t="n">
         <v>70.9672372384604</v>
@@ -41138,19 +41138,19 @@
         <v>431</v>
       </c>
       <c r="AM158" t="n">
-        <v>2.1521376569163</v>
+        <v>21.521376569163</v>
       </c>
       <c r="AN158" t="n">
         <v>0</v>
       </c>
       <c r="AO158" t="n">
-        <v>0.0549269471602768</v>
+        <v>0.549269471602768</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.80260253862363</v>
+        <v>18.0260253862363</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.294608171132394</v>
+        <v>2.94608171132394</v>
       </c>
       <c r="AR158" t="n">
         <v>44.2302570549258</v>
@@ -41395,19 +41395,19 @@
         <v>295</v>
       </c>
       <c r="AM159" t="n">
-        <v>0.502353397952442</v>
+        <v>5.02353397952442</v>
       </c>
       <c r="AN159" t="n">
-        <v>0.0119202501209054</v>
+        <v>0.119202501209054</v>
       </c>
       <c r="AO159" t="n">
-        <v>0.0170289287441506</v>
+        <v>0.170289287441506</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.386556682492218</v>
+        <v>3.86556682492218</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.0868475365951679</v>
+        <v>0.868475365951679</v>
       </c>
       <c r="AR159" t="n">
         <v>64.2087706931295</v>
@@ -41652,19 +41652,19 @@
         <v>536</v>
       </c>
       <c r="AM160" t="n">
-        <v>1.31717014840281</v>
+        <v>13.1717014840281</v>
       </c>
       <c r="AN160" t="n">
-        <v>0.0122870349664441</v>
+        <v>0.122870349664441</v>
       </c>
       <c r="AO160" t="n">
-        <v>0.127785163651019</v>
+        <v>1.27785163651019</v>
       </c>
       <c r="AP160" t="n">
-        <v>0.955931320389352</v>
+        <v>9.55931320389352</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.221166629395994</v>
+        <v>2.21166629395994</v>
       </c>
       <c r="AR160" t="n">
         <v>52.7194891027287</v>
@@ -41909,19 +41909,19 @@
         <v>526</v>
       </c>
       <c r="AM161" t="n">
-        <v>0.394727461699804</v>
+        <v>3.94727461699805</v>
       </c>
       <c r="AN161" t="n">
-        <v>0.00600345949353315</v>
+        <v>0.0600345949353315</v>
       </c>
       <c r="AO161" t="n">
-        <v>0.0540311354417983</v>
+        <v>0.540311354417983</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.267904379898917</v>
+        <v>2.67904379898917</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.0667884868655563</v>
+        <v>0.667884868655563</v>
       </c>
       <c r="AR161" t="n">
         <v>71.0185118060531</v>
@@ -42166,19 +42166,19 @@
         <v>113</v>
       </c>
       <c r="AM162" t="n">
-        <v>0.325353065660855</v>
+        <v>3.25353065660855</v>
       </c>
       <c r="AN162" t="n">
-        <v>0.00287923066956509</v>
+        <v>0.0287923066956509</v>
       </c>
       <c r="AO162" t="n">
-        <v>0.0259130760260858</v>
+        <v>0.259130760260858</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.285043836286944</v>
+        <v>2.85043836286944</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.0115169226782604</v>
+        <v>0.115169226782604</v>
       </c>
       <c r="AR162" t="n">
         <v>74.1717153247843</v>
@@ -42423,19 +42423,19 @@
         <v>822</v>
       </c>
       <c r="AM163" t="n">
-        <v>0.461796196192597</v>
+        <v>4.61796196192597</v>
       </c>
       <c r="AN163" t="n">
-        <v>0.00505616273203573</v>
+        <v>0.0505616273203573</v>
       </c>
       <c r="AO163" t="n">
-        <v>0.0601121569253137</v>
+        <v>0.601121569253137</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.353369595383386</v>
+        <v>3.53369595383386</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.0432582811518613</v>
+        <v>0.432582811518613</v>
       </c>
       <c r="AR163" t="n">
         <v>48.2221324548186</v>
@@ -42680,19 +42680,19 @@
         <v>214</v>
       </c>
       <c r="AM164" t="n">
-        <v>0.486581492168084</v>
+        <v>4.86581492168084</v>
       </c>
       <c r="AN164" t="n">
-        <v>0.00227374529050507</v>
+        <v>0.0227374529050507</v>
       </c>
       <c r="AO164" t="n">
-        <v>0.0363799246480811</v>
+        <v>0.363799246480811</v>
       </c>
       <c r="AP164" t="n">
-        <v>0.372894227642831</v>
+        <v>3.72894227642831</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.0750335945866672</v>
+        <v>0.750335945866672</v>
       </c>
       <c r="AR164" t="n">
         <v>58.1534273938722</v>
@@ -42937,19 +42937,19 @@
         <v>452</v>
       </c>
       <c r="AM165" t="n">
-        <v>0.438378697122994</v>
+        <v>4.38378697122994</v>
       </c>
       <c r="AN165" t="n">
-        <v>0.00290959312249775</v>
+        <v>0.0290959312249775</v>
       </c>
       <c r="AO165" t="n">
-        <v>0.0436438968374663</v>
+        <v>0.436438968374663</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.287079854753111</v>
+        <v>2.87079854753111</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.104745352409919</v>
+        <v>1.04745352409919</v>
       </c>
       <c r="AR165" t="n">
         <v>60.8081323335457</v>
@@ -43194,19 +43194,19 @@
         <v>741</v>
       </c>
       <c r="AM166" t="n">
-        <v>1.36068412480099</v>
+        <v>13.6068412480099</v>
       </c>
       <c r="AN166" t="n">
-        <v>0.00550884261053034</v>
+        <v>0.0550884261053034</v>
       </c>
       <c r="AO166" t="n">
-        <v>0.672078798484701</v>
+        <v>6.72078798484701</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.589446159326746</v>
+        <v>5.89446159326746</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.0936503243790157</v>
+        <v>0.936503243790157</v>
       </c>
       <c r="AR166" t="n">
         <v>61.8170185202961</v>
@@ -43451,19 +43451,19 @@
         <v>184</v>
       </c>
       <c r="AM167" t="n">
-        <v>0.646174052599973</v>
+        <v>6.46174052599973</v>
       </c>
       <c r="AN167" t="n">
         <v>0</v>
       </c>
       <c r="AO167" t="n">
-        <v>0.0140472620130429</v>
+        <v>0.140472620130429</v>
       </c>
       <c r="AP167" t="n">
-        <v>0.523260509985847</v>
+        <v>5.23260509985847</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.108866280601082</v>
+        <v>1.08866280601082</v>
       </c>
       <c r="AR167" t="n">
         <v>50.5853478526284</v>
@@ -43708,19 +43708,19 @@
         <v>390</v>
       </c>
       <c r="AM168" t="n">
-        <v>0.584085905557802</v>
+        <v>5.84085905557802</v>
       </c>
       <c r="AN168" t="n">
-        <v>0.00599062467238771</v>
+        <v>0.0599062467238771</v>
       </c>
       <c r="AO168" t="n">
-        <v>0.0344460918662294</v>
+        <v>0.344460918662294</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.45828278743766</v>
+        <v>4.5828278743766</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.0853664015815249</v>
+        <v>0.853664015815249</v>
       </c>
       <c r="AR168" t="n">
         <v>55.7463788063572</v>
@@ -43965,19 +43965,19 @@
         <v>1684</v>
       </c>
       <c r="AM169" t="n">
-        <v>1.28561100495235</v>
+        <v>12.8561100495235</v>
       </c>
       <c r="AN169" t="n">
-        <v>0.00229028088768234</v>
+        <v>0.0229028088768234</v>
       </c>
       <c r="AO169" t="n">
-        <v>0.0358810672403566</v>
+        <v>0.358810672403566</v>
       </c>
       <c r="AP169" t="n">
-        <v>0.958864264976338</v>
+        <v>9.58864264976338</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.288575391847974</v>
+        <v>2.88575391847974</v>
       </c>
       <c r="AR169" t="n">
         <v>55.3720860370854</v>
@@ -44222,19 +44222,19 @@
         <v>1180</v>
       </c>
       <c r="AM170" t="n">
-        <v>1.94685096855836</v>
+        <v>19.4685096855836</v>
       </c>
       <c r="AN170" t="n">
         <v>0</v>
       </c>
       <c r="AO170" t="n">
-        <v>0.0956926747257497</v>
+        <v>0.956926747257497</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.81486107238491</v>
+        <v>18.1486107238491</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.0362972214476982</v>
+        <v>0.362972214476982</v>
       </c>
       <c r="AR170" t="n">
         <v>57.5998519687089</v>
@@ -44479,19 +44479,19 @@
         <v>90</v>
       </c>
       <c r="AM171" t="n">
-        <v>0.509747505069156</v>
+        <v>5.09747505069156</v>
       </c>
       <c r="AN171" t="n">
         <v>0</v>
       </c>
       <c r="AO171" t="n">
-        <v>0.0169915835023052</v>
+        <v>0.169915835023052</v>
       </c>
       <c r="AP171" t="n">
-        <v>0.453108893394805</v>
+        <v>4.53108893394805</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.0396470281720454</v>
+        <v>0.396470281720454</v>
       </c>
       <c r="AR171" t="n">
         <v>70.7333069925328</v>
@@ -44736,19 +44736,19 @@
         <v>1466</v>
       </c>
       <c r="AM172" t="n">
-        <v>1.38536745785071</v>
+        <v>13.8536745785071</v>
       </c>
       <c r="AN172" t="n">
-        <v>0.00472499132964091</v>
+        <v>0.0472499132964091</v>
       </c>
       <c r="AO172" t="n">
-        <v>0.0982798196565309</v>
+        <v>0.982798196565309</v>
       </c>
       <c r="AP172" t="n">
-        <v>0.828763479219016</v>
+        <v>8.28763479219016</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.453599167645527</v>
+        <v>4.53599167645527</v>
       </c>
       <c r="AR172" t="n">
         <v>59.7029238137939</v>
@@ -44993,19 +44993,19 @@
         <v>166</v>
       </c>
       <c r="AM173" t="n">
-        <v>0.504999802259114</v>
+        <v>5.04999802259114</v>
       </c>
       <c r="AN173" t="n">
-        <v>0.0152108374174432</v>
+        <v>0.152108374174432</v>
       </c>
       <c r="AO173" t="n">
-        <v>0.0182530049009318</v>
+        <v>0.182530049009318</v>
       </c>
       <c r="AP173" t="n">
-        <v>0.416776945237943</v>
+        <v>4.16776945237943</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.0547590147027954</v>
+        <v>0.547590147027954</v>
       </c>
       <c r="AR173" t="n">
         <v>34.5831193819611</v>
@@ -45250,19 +45250,19 @@
         <v>915</v>
       </c>
       <c r="AM174" t="n">
-        <v>0.797279317006099</v>
+        <v>7.97279317006099</v>
       </c>
       <c r="AN174" t="n">
-        <v>0.0426958322768293</v>
+        <v>0.426958322768293</v>
       </c>
       <c r="AO174" t="n">
-        <v>0.0287543360231708</v>
+        <v>0.287543360231708</v>
       </c>
       <c r="AP174" t="n">
-        <v>0.429572353315854</v>
+        <v>4.29572353315854</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.296256795390244</v>
+        <v>2.96256795390244</v>
       </c>
       <c r="AR174" t="n">
         <v>35.011576005091</v>
@@ -45507,19 +45507,19 @@
         <v>784</v>
       </c>
       <c r="AM175" t="n">
-        <v>0.773835668494327</v>
+        <v>7.73835668494327</v>
       </c>
       <c r="AN175" t="n">
-        <v>0.00394814116578738</v>
+        <v>0.0394814116578738</v>
       </c>
       <c r="AO175" t="n">
-        <v>0.0473776939894486</v>
+        <v>0.473776939894486</v>
       </c>
       <c r="AP175" t="n">
-        <v>0.548791622044446</v>
+        <v>5.48791622044446</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.173718211294645</v>
+        <v>1.73718211294645</v>
       </c>
       <c r="AR175" t="n">
         <v>47.020568262887</v>
@@ -45764,19 +45764,19 @@
         <v>173</v>
       </c>
       <c r="AM176" t="n">
-        <v>0.726542748431424</v>
+        <v>7.26542748431424</v>
       </c>
       <c r="AN176" t="n">
         <v>0</v>
       </c>
       <c r="AO176" t="n">
-        <v>0.00839933813215519</v>
+        <v>0.0839933813215519</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.562755654854397</v>
+        <v>5.62755654854397</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.155387755444871</v>
+        <v>1.55387755444871</v>
       </c>
       <c r="AR176" t="n">
         <v>47.4767429120234</v>
@@ -46021,19 +46021,19 @@
         <v>2089</v>
       </c>
       <c r="AM177" t="n">
-        <v>0.440428047992953</v>
+        <v>4.40428047992953</v>
       </c>
       <c r="AN177" t="n">
-        <v>0.00569246399990892</v>
+        <v>0.0569246399990892</v>
       </c>
       <c r="AO177" t="n">
-        <v>0.0430097279993118</v>
+        <v>0.430097279993118</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.276611583995574</v>
+        <v>2.76611583995574</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.115114271998158</v>
+        <v>1.15114271998158</v>
       </c>
       <c r="AR177" t="n">
         <v>71.52895004194</v>
@@ -46278,19 +46278,19 @@
         <v>2817</v>
       </c>
       <c r="AM178" t="n">
-        <v>1.39326809653464</v>
+        <v>13.9326809653464</v>
       </c>
       <c r="AN178" t="n">
-        <v>0.00741889295279358</v>
+        <v>0.0741889295279358</v>
       </c>
       <c r="AO178" t="n">
-        <v>0.0400620219450854</v>
+        <v>0.400620219450854</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.561362900094714</v>
+        <v>5.61362900094715</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.784424281542042</v>
+        <v>7.84424281542042</v>
       </c>
       <c r="AR178" t="n">
         <v>29.0353936327005</v>
@@ -46535,19 +46535,19 @@
         <v>598</v>
       </c>
       <c r="AM179" t="n">
-        <v>0.817686085115925</v>
+        <v>8.17686085115925</v>
       </c>
       <c r="AN179" t="n">
-        <v>0.00410210410593274</v>
+        <v>0.0410210410593274</v>
       </c>
       <c r="AO179" t="n">
-        <v>0.0273473607062182</v>
+        <v>0.273473607062182</v>
       </c>
       <c r="AP179" t="n">
-        <v>0.642662976596129</v>
+        <v>6.42662976596129</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.143573643707646</v>
+        <v>1.43573643707646</v>
       </c>
       <c r="AR179" t="n">
         <v>47.7297406594294</v>
@@ -46792,19 +46792,19 @@
         <v>6706</v>
       </c>
       <c r="AM180" t="n">
-        <v>0.792168283665705</v>
+        <v>7.92168283665705</v>
       </c>
       <c r="AN180" t="n">
-        <v>0.0103952891384703</v>
+        <v>0.103952891384703</v>
       </c>
       <c r="AO180" t="n">
-        <v>0.0264607359888336</v>
+        <v>0.264607359888336</v>
       </c>
       <c r="AP180" t="n">
-        <v>0.416992848395458</v>
+        <v>4.16992848395458</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.338319410142943</v>
+        <v>3.38319410142944</v>
       </c>
       <c r="AR180" t="n">
         <v>64.6981453458087</v>
@@ -47049,19 +47049,19 @@
         <v>806</v>
       </c>
       <c r="AM181" t="n">
-        <v>1.39473392768149</v>
+        <v>13.9473392768149</v>
       </c>
       <c r="AN181" t="n">
-        <v>0.0830610775790465</v>
+        <v>0.830610775790464</v>
       </c>
       <c r="AO181" t="n">
-        <v>0.167852594274323</v>
+        <v>1.67852594274323</v>
       </c>
       <c r="AP181" t="n">
-        <v>0.828880336674234</v>
+        <v>8.28880336674234</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.314939919153884</v>
+        <v>3.14939919153885</v>
       </c>
       <c r="AR181" t="n">
         <v>77.0907393292866</v>
@@ -47306,19 +47306,19 @@
         <v>94</v>
       </c>
       <c r="AM182" t="n">
-        <v>0.373845156517831</v>
+        <v>3.73845156517831</v>
       </c>
       <c r="AN182" t="n">
-        <v>0.00795415226633684</v>
+        <v>0.0795415226633683</v>
       </c>
       <c r="AO182" t="n">
-        <v>0.0318166090653473</v>
+        <v>0.318166090653473</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.266464100922284</v>
+        <v>2.66464100922284</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.0676102942638631</v>
+        <v>0.676102942638631</v>
       </c>
       <c r="AR182" t="n">
         <v>46.7393911529968</v>
@@ -47563,19 +47563,19 @@
         <v>1895</v>
       </c>
       <c r="AM183" t="n">
-        <v>0.947404785819025</v>
+        <v>9.47404785819025</v>
       </c>
       <c r="AN183" t="n">
-        <v>0.0199979902019847</v>
+        <v>0.199979902019847</v>
       </c>
       <c r="AO183" t="n">
-        <v>0.0554944228105075</v>
+        <v>0.554944228105075</v>
       </c>
       <c r="AP183" t="n">
-        <v>0.598439856794392</v>
+        <v>5.98439856794392</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.273472516012141</v>
+        <v>2.73472516012141</v>
       </c>
       <c r="AR183" t="n">
         <v>45.1829844985023</v>
@@ -47820,19 +47820,19 @@
         <v>1459</v>
       </c>
       <c r="AM184" t="n">
-        <v>0.806433337147172</v>
+        <v>8.06433337147172</v>
       </c>
       <c r="AN184" t="n">
-        <v>0.0121600640282644</v>
+        <v>0.121600640282644</v>
       </c>
       <c r="AO184" t="n">
-        <v>0.0348220015354844</v>
+        <v>0.348220015354844</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.692018189244865</v>
+        <v>6.92018189244865</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.0674330823385572</v>
+        <v>0.674330823385572</v>
       </c>
       <c r="AR184" t="n">
         <v>55.5139943453569</v>
@@ -48077,19 +48077,19 @@
         <v>425</v>
       </c>
       <c r="AM185" t="n">
-        <v>2.0429451096701</v>
+        <v>20.429451096701</v>
       </c>
       <c r="AN185" t="n">
-        <v>0.004806929669812</v>
+        <v>0.04806929669812</v>
       </c>
       <c r="AO185" t="n">
-        <v>0.043262367028308</v>
+        <v>0.43262367028308</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.72568775146251</v>
+        <v>17.2568775146251</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.269188061509472</v>
+        <v>2.69188061509472</v>
       </c>
       <c r="AR185" t="n">
         <v>65.6295040679953</v>
@@ -48334,19 +48334,19 @@
         <v>281</v>
       </c>
       <c r="AM186" t="n">
-        <v>0.470724614374355</v>
+        <v>4.70724614374355</v>
       </c>
       <c r="AN186" t="n">
-        <v>0.00502552969082941</v>
+        <v>0.0502552969082941</v>
       </c>
       <c r="AO186" t="n">
-        <v>0.0117262359452686</v>
+        <v>0.117262359452686</v>
       </c>
       <c r="AP186" t="n">
-        <v>0.410418258084402</v>
+        <v>4.10418258084402</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.0435545906538549</v>
+        <v>0.435545906538549</v>
       </c>
       <c r="AR186" t="n">
         <v>66.2206557122923</v>
@@ -48591,19 +48591,19 @@
         <v>322</v>
       </c>
       <c r="AM187" t="n">
-        <v>0.780513345081433</v>
+        <v>7.80513345081433</v>
       </c>
       <c r="AN187" t="n">
-        <v>0.00484790897566107</v>
+        <v>0.0484790897566107</v>
       </c>
       <c r="AO187" t="n">
-        <v>0.067870725659255</v>
+        <v>0.67870725659255</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.506606487956582</v>
+        <v>5.06606487956582</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.201188222489935</v>
+        <v>2.01188222489935</v>
       </c>
       <c r="AR187" t="n">
         <v>60.7636597898776</v>
@@ -48848,19 +48848,19 @@
         <v>512</v>
       </c>
       <c r="AM188" t="n">
-        <v>0.3794276126963</v>
+        <v>3.794276126963</v>
       </c>
       <c r="AN188" t="n">
-        <v>0.00370534778023731</v>
+        <v>0.0370534778023731</v>
       </c>
       <c r="AO188" t="n">
-        <v>0.0377945473584205</v>
+        <v>0.377945473584205</v>
       </c>
       <c r="AP188" t="n">
-        <v>0.28605284863432</v>
+        <v>2.8605284863432</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.0518748689233223</v>
+        <v>0.518748689233223</v>
       </c>
       <c r="AR188" t="n">
         <v>59.5446455990442</v>
@@ -49105,19 +49105,19 @@
         <v>131</v>
       </c>
       <c r="AM189" t="n">
-        <v>0.369435553236791</v>
+        <v>3.69435553236791</v>
       </c>
       <c r="AN189" t="n">
-        <v>0.014100593634992</v>
+        <v>0.14100593634992</v>
       </c>
       <c r="AO189" t="n">
-        <v>0.0394816621779777</v>
+        <v>0.394816621779777</v>
       </c>
       <c r="AP189" t="n">
-        <v>0.293292347607834</v>
+        <v>2.93292347607834</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.0225609498159873</v>
+        <v>0.225609498159873</v>
       </c>
       <c r="AR189" t="n">
         <v>69.2477210035865</v>
@@ -49362,19 +49362,19 @@
         <v>772</v>
       </c>
       <c r="AM190" t="n">
-        <v>0.427766714208615</v>
+        <v>4.27766714208615</v>
       </c>
       <c r="AN190" t="n">
-        <v>0.000554101961410123</v>
+        <v>0.00554101961410123</v>
       </c>
       <c r="AO190" t="n">
-        <v>0.0526396863339617</v>
+        <v>0.526396863339617</v>
       </c>
       <c r="AP190" t="n">
-        <v>0.336339890575945</v>
+        <v>3.36339890575945</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.0382330353372985</v>
+        <v>0.382330353372985</v>
       </c>
       <c r="AR190" t="n">
         <v>30.9715519740294</v>
@@ -49619,19 +49619,19 @@
         <v>196</v>
       </c>
       <c r="AM191" t="n">
-        <v>0.437475587299816</v>
+        <v>4.37475587299816</v>
       </c>
       <c r="AN191" t="n">
-        <v>0.00223201830255008</v>
+        <v>0.0223201830255008</v>
       </c>
       <c r="AO191" t="n">
-        <v>0.0200881647229507</v>
+        <v>0.200881647229507</v>
       </c>
       <c r="AP191" t="n">
-        <v>0.341498800290162</v>
+        <v>3.41498800290162</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.0736566039841527</v>
+        <v>0.736566039841527</v>
       </c>
       <c r="AR191" t="n">
         <v>58.1534273938722</v>
@@ -49876,19 +49876,19 @@
         <v>413</v>
       </c>
       <c r="AM192" t="n">
-        <v>0.393800267936744</v>
+        <v>3.93800267936744</v>
       </c>
       <c r="AN192" t="n">
-        <v>0.00381404617856411</v>
+        <v>0.0381404617856411</v>
       </c>
       <c r="AO192" t="n">
-        <v>0.0238377886160257</v>
+        <v>0.238377886160257</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.287006974936949</v>
+        <v>2.87006974936949</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.0791414582052052</v>
+        <v>0.791414582052052</v>
       </c>
       <c r="AR192" t="n">
         <v>60.8081323335457</v>
@@ -50133,19 +50133,19 @@
         <v>767</v>
       </c>
       <c r="AM193" t="n">
-        <v>1.38712057640557</v>
+        <v>13.8712057640557</v>
       </c>
       <c r="AN193" t="n">
-        <v>0.00542550421019127</v>
+        <v>0.0542550421019127</v>
       </c>
       <c r="AO193" t="n">
-        <v>0.549784426632715</v>
+        <v>5.49784426632715</v>
       </c>
       <c r="AP193" t="n">
-        <v>0.736060071182615</v>
+        <v>7.36060071182615</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.0958505743800457</v>
+        <v>0.958505743800457</v>
       </c>
       <c r="AR193" t="n">
         <v>61.8170185202961</v>
@@ -50390,19 +50390,19 @@
         <v>131</v>
       </c>
       <c r="AM194" t="n">
-        <v>0.445440356896335</v>
+        <v>4.45440356896335</v>
       </c>
       <c r="AN194" t="n">
         <v>0</v>
       </c>
       <c r="AO194" t="n">
-        <v>0.00340030806791095</v>
+        <v>0.0340030806791095</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.367233271334383</v>
+        <v>3.67233271334383</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.074806777494041</v>
+        <v>0.74806777494041</v>
       </c>
       <c r="AR194" t="n">
         <v>50.5853478526284</v>
@@ -50647,19 +50647,19 @@
         <v>350</v>
       </c>
       <c r="AM195" t="n">
-        <v>0.516415369111574</v>
+        <v>5.16415369111574</v>
       </c>
       <c r="AN195" t="n">
-        <v>0.00442641744952777</v>
+        <v>0.0442641744952778</v>
       </c>
       <c r="AO195" t="n">
-        <v>0.0103283073822315</v>
+        <v>0.103283073822315</v>
       </c>
       <c r="AP195" t="n">
-        <v>0.321653001332352</v>
+        <v>3.21653001332352</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.180007642947463</v>
+        <v>1.80007642947463</v>
       </c>
       <c r="AR195" t="n">
         <v>55.7463788063572</v>
@@ -50904,19 +50904,19 @@
         <v>1798</v>
       </c>
       <c r="AM196" t="n">
-        <v>1.3369659943666</v>
+        <v>13.369659943666</v>
       </c>
       <c r="AN196" t="n">
-        <v>0.0014871701828327</v>
+        <v>0.014871701828327</v>
       </c>
       <c r="AO196" t="n">
-        <v>0.0319741589309031</v>
+        <v>0.319741589309031</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.04622422362281</v>
+        <v>10.4622422362281</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.257280441630057</v>
+        <v>2.57280441630057</v>
       </c>
       <c r="AR196" t="n">
         <v>55.3720860370854</v>
@@ -51161,19 +51161,19 @@
         <v>1075</v>
       </c>
       <c r="AM197" t="n">
-        <v>1.74861859131286</v>
+        <v>17.4861859131286</v>
       </c>
       <c r="AN197" t="n">
         <v>0</v>
       </c>
       <c r="AO197" t="n">
-        <v>0.126876511741771</v>
+        <v>1.26876511741771</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.59896937233539</v>
+        <v>15.9896937233539</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.0227727072357024</v>
+        <v>0.227727072357024</v>
       </c>
       <c r="AR197" t="n">
         <v>57.5998519687089</v>
@@ -51418,19 +51418,19 @@
         <v>80</v>
       </c>
       <c r="AM198" t="n">
+        <v>4.39601501239127</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>0.164850562964673</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>3.79156294818747</v>
+      </c>
+      <c r="AQ198" t="n">
         <v>0.439601501239127</v>
-      </c>
-      <c r="AN198" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO198" t="n">
-        <v>0.0164850562964673</v>
-      </c>
-      <c r="AP198" t="n">
-        <v>0.379156294818747</v>
-      </c>
-      <c r="AQ198" t="n">
-        <v>0.0439601501239127</v>
       </c>
       <c r="AR198" t="n">
         <v>70.7333069925328</v>
@@ -51675,19 +51675,19 @@
         <v>1216</v>
       </c>
       <c r="AM199" t="n">
-        <v>1.14158144704836</v>
+        <v>11.4158144704836</v>
       </c>
       <c r="AN199" t="n">
-        <v>0.00563280319267285</v>
+        <v>0.0563280319267285</v>
       </c>
       <c r="AO199" t="n">
-        <v>0.0826144468258685</v>
+        <v>0.826144468258685</v>
       </c>
       <c r="AP199" t="n">
-        <v>0.731325614515358</v>
+        <v>7.31325614515358</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.322008582514465</v>
+        <v>3.22008582514465</v>
       </c>
       <c r="AR199" t="n">
         <v>59.7029238137939</v>
@@ -51932,19 +51932,19 @@
         <v>100</v>
       </c>
       <c r="AM200" t="n">
-        <v>0.295655053336172</v>
+        <v>2.95655053336172</v>
       </c>
       <c r="AN200" t="n">
-        <v>0.00591310106672343</v>
+        <v>0.0591310106672343</v>
       </c>
       <c r="AO200" t="n">
-        <v>0.0177393032001703</v>
+        <v>0.177393032001703</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.230610941602214</v>
+        <v>2.30610941602214</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.041391707467064</v>
+        <v>0.41391707467064</v>
       </c>
       <c r="AR200" t="n">
         <v>34.5831193819611</v>
@@ -52189,19 +52189,19 @@
         <v>870</v>
       </c>
       <c r="AM201" t="n">
-        <v>0.750183665656074</v>
+        <v>7.50183665656074</v>
       </c>
       <c r="AN201" t="n">
-        <v>0.0258684022640026</v>
+        <v>0.258684022640026</v>
       </c>
       <c r="AO201" t="n">
-        <v>0.0508745244525384</v>
+        <v>0.508745244525384</v>
       </c>
       <c r="AP201" t="n">
-        <v>0.44062511856351</v>
+        <v>4.4062511856351</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.232815620376023</v>
+        <v>2.32815620376023</v>
       </c>
       <c r="AR201" t="n">
         <v>35.011576005091</v>
@@ -52446,19 +52446,19 @@
         <v>729</v>
       </c>
       <c r="AM202" t="n">
-        <v>0.710806897459524</v>
+        <v>7.10806897459524</v>
       </c>
       <c r="AN202" t="n">
         <v>0</v>
       </c>
       <c r="AO202" t="n">
-        <v>0.0321764439179208</v>
+        <v>0.321764439179208</v>
       </c>
       <c r="AP202" t="n">
-        <v>0.532373890278326</v>
+        <v>5.32373890278326</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.146256563263276</v>
+        <v>1.46256563263276</v>
       </c>
       <c r="AR202" t="n">
         <v>47.020568262887</v>
@@ -52703,19 +52703,19 @@
         <v>145</v>
       </c>
       <c r="AM203" t="n">
-        <v>0.593483955468238</v>
+        <v>5.93483955468238</v>
       </c>
       <c r="AN203" t="n">
-        <v>0.00409299279633268</v>
+        <v>0.0409299279633268</v>
       </c>
       <c r="AO203" t="n">
         <v>0</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.454322200392927</v>
+        <v>4.54322200392927</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.135068762278978</v>
+        <v>1.35068762278978</v>
       </c>
       <c r="AR203" t="n">
         <v>47.4767429120234</v>
@@ -52960,19 +52960,19 @@
         <v>2050</v>
       </c>
       <c r="AM204" t="n">
-        <v>0.42872544109051</v>
+        <v>4.2872544109051</v>
       </c>
       <c r="AN204" t="n">
-        <v>0.00543749339919672</v>
+        <v>0.0543749339919672</v>
       </c>
       <c r="AO204" t="n">
-        <v>0.0276057357189987</v>
+        <v>0.276057357189987</v>
       </c>
       <c r="AP204" t="n">
-        <v>0.279403506974108</v>
+        <v>2.79403506974108</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.116278704998207</v>
+        <v>1.16278704998207</v>
       </c>
       <c r="AR204" t="n">
         <v>71.52895004194</v>
@@ -53217,19 +53217,19 @@
         <v>2576</v>
       </c>
       <c r="AM205" t="n">
-        <v>1.25971868564786</v>
+        <v>12.5971868564786</v>
       </c>
       <c r="AN205" t="n">
-        <v>0.00537923351790625</v>
+        <v>0.0537923351790625</v>
       </c>
       <c r="AO205" t="n">
-        <v>0.0288522525051335</v>
+        <v>0.288522525051335</v>
       </c>
       <c r="AP205" t="n">
-        <v>0.484131016611562</v>
+        <v>4.84131016611562</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.741356183013261</v>
+        <v>7.41356183013261</v>
       </c>
       <c r="AR205" t="n">
         <v>29.0353936327005</v>
@@ -53474,19 +53474,19 @@
         <v>450</v>
       </c>
       <c r="AM206" t="n">
-        <v>0.607041683528936</v>
+        <v>6.07041683528936</v>
       </c>
       <c r="AN206" t="n">
-        <v>0.00134898151895319</v>
+        <v>0.0134898151895319</v>
       </c>
       <c r="AO206" t="n">
-        <v>0.0242816673411574</v>
+        <v>0.242816673411574</v>
       </c>
       <c r="AP206" t="n">
-        <v>0.488331309861055</v>
+        <v>4.88331309861055</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.0930797248077701</v>
+        <v>0.930797248077701</v>
       </c>
       <c r="AR206" t="n">
         <v>47.7297406594294</v>
@@ -53731,19 +53731,19 @@
         <v>6605</v>
       </c>
       <c r="AM207" t="n">
-        <v>0.772162134641929</v>
+        <v>7.72162134641929</v>
       </c>
       <c r="AN207" t="n">
-        <v>0.0111060413006788</v>
+        <v>0.111060413006788</v>
       </c>
       <c r="AO207" t="n">
-        <v>0.0231473281845726</v>
+        <v>0.231473281845726</v>
       </c>
       <c r="AP207" t="n">
-        <v>0.442721877954426</v>
+        <v>4.42721877954426</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.295186887202251</v>
+        <v>2.95186887202251</v>
       </c>
       <c r="AR207" t="n">
         <v>64.6981453458087</v>
@@ -53988,19 +53988,19 @@
         <v>663</v>
       </c>
       <c r="AM208" t="n">
-        <v>1.13581270568403</v>
+        <v>11.3581270568403</v>
       </c>
       <c r="AN208" t="n">
-        <v>0.0719519361066807</v>
+        <v>0.719519361066807</v>
       </c>
       <c r="AO208" t="n">
-        <v>0.147330154885108</v>
+        <v>1.47330154885108</v>
       </c>
       <c r="AP208" t="n">
-        <v>0.656133131639493</v>
+        <v>6.56133131639493</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.260397483052749</v>
+        <v>2.60397483052749</v>
       </c>
       <c r="AR208" t="n">
         <v>77.0907393292866</v>
@@ -54245,19 +54245,19 @@
         <v>95</v>
       </c>
       <c r="AM209" t="n">
-        <v>0.372747818444347</v>
+        <v>3.72747818444347</v>
       </c>
       <c r="AN209" t="n">
-        <v>0.0117709837403478</v>
+        <v>0.117709837403478</v>
       </c>
       <c r="AO209" t="n">
-        <v>0.0470839349613912</v>
+        <v>0.470839349613912</v>
       </c>
       <c r="AP209" t="n">
-        <v>0.231496013560173</v>
+        <v>2.31496013560173</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.0823968861824346</v>
+        <v>0.823968861824345</v>
       </c>
       <c r="AR209" t="n">
         <v>46.7393911529968</v>
@@ -54502,19 +54502,19 @@
         <v>1762</v>
       </c>
       <c r="AM210" t="n">
-        <v>0.862519653895632</v>
+        <v>8.62519653895632</v>
       </c>
       <c r="AN210" t="n">
-        <v>0.0318182619200999</v>
+        <v>0.318182619200999</v>
       </c>
       <c r="AO210" t="n">
-        <v>0.039650449469663</v>
+        <v>0.39650449469663</v>
       </c>
       <c r="AP210" t="n">
-        <v>0.555106292575282</v>
+        <v>5.55106292575282</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.235944649930587</v>
+        <v>2.35944649930587</v>
       </c>
       <c r="AR210" t="n">
         <v>45.1829844985023</v>
@@ -54759,19 +54759,19 @@
         <v>1535</v>
       </c>
       <c r="AM211" t="n">
-        <v>0.841217117864109</v>
+        <v>8.41217117864109</v>
       </c>
       <c r="AN211" t="n">
-        <v>0.00822036271528445</v>
+        <v>0.0822036271528445</v>
       </c>
       <c r="AO211" t="n">
-        <v>0.0356215717662326</v>
+        <v>0.356215717662326</v>
       </c>
       <c r="AP211" t="n">
-        <v>0.718459701315861</v>
+        <v>7.18459701315861</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.0789154820667307</v>
+        <v>0.789154820667307</v>
       </c>
       <c r="AR211" t="n">
         <v>55.5139943453569</v>
@@ -55016,19 +55016,19 @@
         <v>421</v>
       </c>
       <c r="AM212" t="n">
-        <v>1.89749899716502</v>
+        <v>18.9749899716502</v>
       </c>
       <c r="AN212" t="n">
         <v>0</v>
       </c>
       <c r="AO212" t="n">
-        <v>0.0315498645609386</v>
+        <v>0.315498645609386</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.41072965822482</v>
+        <v>14.1072965822482</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.455219474379256</v>
+        <v>4.55219474379256</v>
       </c>
       <c r="AR212" t="n">
         <v>65.6295040679953</v>
@@ -55273,19 +55273,19 @@
         <v>347</v>
       </c>
       <c r="AM213" t="n">
-        <v>0.572171051112848</v>
+        <v>5.72171051112848</v>
       </c>
       <c r="AN213" t="n">
-        <v>0.0032978158565582</v>
+        <v>0.032978158565582</v>
       </c>
       <c r="AO213" t="n">
-        <v>0.0148401713545119</v>
+        <v>0.148401713545119</v>
       </c>
       <c r="AP213" t="n">
-        <v>0.497970194340288</v>
+        <v>4.97970194340289</v>
       </c>
       <c r="AQ213" t="n">
-        <v>0.0560628695614894</v>
+        <v>0.560628695614894</v>
       </c>
       <c r="AR213" t="n">
         <v>66.2206557122923</v>
@@ -55530,19 +55530,19 @@
         <v>268</v>
       </c>
       <c r="AM214" t="n">
-        <v>0.641074709124311</v>
+        <v>6.41074709124311</v>
       </c>
       <c r="AN214" t="n">
-        <v>0.00717620943049602</v>
+        <v>0.0717620943049602</v>
       </c>
       <c r="AO214" t="n">
-        <v>0.0621938150642988</v>
+        <v>0.621938150642988</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.437748775260257</v>
+        <v>4.37748775260257</v>
       </c>
       <c r="AQ214" t="n">
-        <v>0.133955909369259</v>
+        <v>1.33955909369259</v>
       </c>
       <c r="AR214" t="n">
         <v>60.7636597898776</v>
@@ -55787,19 +55787,19 @@
         <v>516</v>
       </c>
       <c r="AM215" t="n">
-        <v>0.377791981584837</v>
+        <v>3.77791981584837</v>
       </c>
       <c r="AN215" t="n">
-        <v>0.00951801503992807</v>
+        <v>0.0951801503992807</v>
       </c>
       <c r="AO215" t="n">
-        <v>0.0534473152242115</v>
+        <v>0.534473152242115</v>
       </c>
       <c r="AP215" t="n">
-        <v>0.258450716084201</v>
+        <v>2.58450716084201</v>
       </c>
       <c r="AQ215" t="n">
-        <v>0.056375935236497</v>
+        <v>0.56375935236497</v>
       </c>
       <c r="AR215" t="n">
         <v>59.5446455990442</v>
@@ -56044,19 +56044,19 @@
         <v>111</v>
       </c>
       <c r="AM216" t="n">
-        <v>0.306853617002455</v>
+        <v>3.06853617002455</v>
       </c>
       <c r="AN216" t="n">
-        <v>0.0165866820001327</v>
+        <v>0.165866820001327</v>
       </c>
       <c r="AO216" t="n">
-        <v>0.024880023000199</v>
+        <v>0.24880023000199</v>
       </c>
       <c r="AP216" t="n">
-        <v>0.223920207001791</v>
+        <v>2.23920207001791</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.0414667050003317</v>
+        <v>0.414667050003317</v>
       </c>
       <c r="AR216" t="n">
         <v>69.2477210035865</v>
@@ -56301,19 +56301,19 @@
         <v>706</v>
       </c>
       <c r="AM217" t="n">
-        <v>0.38596191988174</v>
+        <v>3.8596191988174</v>
       </c>
       <c r="AN217" t="n">
-        <v>0.0016400648153615</v>
+        <v>0.016400648153615</v>
       </c>
       <c r="AO217" t="n">
-        <v>0.0502953210044194</v>
+        <v>0.502953210044194</v>
       </c>
       <c r="AP217" t="n">
-        <v>0.296851731580432</v>
+        <v>2.96851731580432</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.0371748024815274</v>
+        <v>0.371748024815274</v>
       </c>
       <c r="AR217" t="n">
         <v>30.9715519740294</v>
@@ -56556,19 +56556,19 @@
         <v>192</v>
       </c>
       <c r="AM218" t="n">
-        <v>0.420791482479075</v>
+        <v>4.20791482479075</v>
       </c>
       <c r="AN218" t="n">
-        <v>0.0153413561320496</v>
+        <v>0.153413561320496</v>
       </c>
       <c r="AO218" t="n">
-        <v>0.0328743345686778</v>
+        <v>0.328743345686778</v>
       </c>
       <c r="AP218" t="n">
-        <v>0.322168478773042</v>
+        <v>3.22168478773042</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.0504073130053059</v>
+        <v>0.504073130053059</v>
       </c>
       <c r="AR218" t="n">
         <v>58.1534273938722</v>
@@ -56811,19 +56811,19 @@
         <v>418</v>
       </c>
       <c r="AM219" t="n">
-        <v>0.39208329425007</v>
+        <v>3.9208329425007</v>
       </c>
       <c r="AN219" t="n">
-        <v>0.00562798986961823</v>
+        <v>0.0562798986961823</v>
       </c>
       <c r="AO219" t="n">
-        <v>0.0196979645436638</v>
+        <v>0.196979645436638</v>
       </c>
       <c r="AP219" t="n">
-        <v>0.298283463089766</v>
+        <v>2.98283463089766</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.0684738767470219</v>
+        <v>0.684738767470219</v>
       </c>
       <c r="AR219" t="n">
         <v>60.8081323335457</v>
@@ -57066,19 +57066,19 @@
         <v>923</v>
       </c>
       <c r="AM220" t="n">
-        <v>1.64425925497063</v>
+        <v>16.4425925497063</v>
       </c>
       <c r="AN220" t="n">
-        <v>0.00534428793598256</v>
+        <v>0.0534428793598256</v>
       </c>
       <c r="AO220" t="n">
-        <v>0.749981740349552</v>
+        <v>7.49981740349552</v>
       </c>
       <c r="AP220" t="n">
-        <v>0.803424619709378</v>
+        <v>8.03424619709378</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.0855086069757209</v>
+        <v>0.855086069757209</v>
       </c>
       <c r="AR220" t="n">
         <v>61.8170185202961</v>
@@ -57321,19 +57321,19 @@
         <v>179</v>
       </c>
       <c r="AM221" t="n">
-        <v>0.589789718548392</v>
+        <v>5.89789718548392</v>
       </c>
       <c r="AN221" t="n">
-        <v>0.00329491462876197</v>
+        <v>0.0329491462876197</v>
       </c>
       <c r="AO221" t="n">
-        <v>0.00988474388628591</v>
+        <v>0.0988474388628591</v>
       </c>
       <c r="AP221" t="n">
-        <v>0.474467706541724</v>
+        <v>4.74467706541724</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.102142353491621</v>
+        <v>1.02142353491621</v>
       </c>
       <c r="AR221" t="n">
         <v>50.5853478526284</v>
@@ -57576,19 +57576,19 @@
         <v>341</v>
       </c>
       <c r="AM222" t="n">
-        <v>0.495676278328771</v>
+        <v>4.95676278328772</v>
       </c>
       <c r="AN222" t="n">
-        <v>0.0261647302343633</v>
+        <v>0.261647302343633</v>
       </c>
       <c r="AO222" t="n">
-        <v>0.0319791147308885</v>
+        <v>0.319791147308885</v>
       </c>
       <c r="AP222" t="n">
-        <v>0.28054405195734</v>
+        <v>2.8054405195734</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.15698838140618</v>
+        <v>1.5698838140618</v>
       </c>
       <c r="AR222" t="n">
         <v>55.7463788063572</v>
@@ -57831,19 +57831,19 @@
         <v>2072</v>
       </c>
       <c r="AM223" t="n">
-        <v>1.50128500432199</v>
+        <v>15.0128500432199</v>
       </c>
       <c r="AN223" t="n">
-        <v>0.000724558399769301</v>
+        <v>0.00724558399769301</v>
       </c>
       <c r="AO223" t="n">
-        <v>0.0326051279896185</v>
+        <v>0.326051279896185</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.17740739962511</v>
+        <v>11.7740739962511</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.29054791830749</v>
+        <v>2.9054791830749</v>
       </c>
       <c r="AR223" t="n">
         <v>55.3720860370854</v>
@@ -58086,19 +58086,19 @@
         <v>1089</v>
       </c>
       <c r="AM224" t="n">
-        <v>1.74730924004082</v>
+        <v>17.4730924004082</v>
       </c>
       <c r="AN224" t="n">
-        <v>0.00160450802574914</v>
+        <v>0.0160450802574914</v>
       </c>
       <c r="AO224" t="n">
-        <v>0.162055310600664</v>
+        <v>1.62055310600664</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.55637278497667</v>
+        <v>15.5637278497667</v>
       </c>
       <c r="AQ224" t="n">
-        <v>0.0272766364377355</v>
+        <v>0.272766364377355</v>
       </c>
       <c r="AR224" t="n">
         <v>57.5998519687089</v>
@@ -58341,19 +58341,19 @@
         <v>83</v>
       </c>
       <c r="AM225" t="n">
-        <v>0.442706805417025</v>
+        <v>4.42706805417024</v>
       </c>
       <c r="AN225" t="n">
         <v>0</v>
       </c>
       <c r="AO225" t="n">
-        <v>0.0160014507982057</v>
+        <v>0.160014507982057</v>
       </c>
       <c r="AP225" t="n">
-        <v>0.378701002224202</v>
+        <v>3.78701002224202</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.0480043523946171</v>
+        <v>0.480043523946171</v>
       </c>
       <c r="AR225" t="n">
         <v>70.7333069925328</v>
@@ -58596,19 +58596,19 @@
         <v>1100</v>
       </c>
       <c r="AM226" t="n">
-        <v>1.02631375157796</v>
+        <v>10.2631375157796</v>
       </c>
       <c r="AN226" t="n">
-        <v>0.00559807500860704</v>
+        <v>0.0559807500860704</v>
       </c>
       <c r="AO226" t="n">
-        <v>0.0951672751463197</v>
+        <v>0.951672751463197</v>
       </c>
       <c r="AP226" t="n">
-        <v>0.658706826012762</v>
+        <v>6.58706826012762</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.266841575410269</v>
+        <v>2.66841575410269</v>
       </c>
       <c r="AR226" t="n">
         <v>59.7029238137939</v>
@@ -58851,19 +58851,19 @@
         <v>121</v>
       </c>
       <c r="AM227" t="n">
-        <v>0.347993143672277</v>
+        <v>3.47993143672277</v>
       </c>
       <c r="AN227" t="n">
-        <v>0.00287597639398576</v>
+        <v>0.0287597639398576</v>
       </c>
       <c r="AO227" t="n">
-        <v>0.00862792918195728</v>
+        <v>0.0862792918195728</v>
       </c>
       <c r="AP227" t="n">
-        <v>0.313481426944448</v>
+        <v>3.13481426944448</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.0230078111518861</v>
+        <v>0.230078111518861</v>
       </c>
       <c r="AR227" t="n">
         <v>34.5831193819611</v>
@@ -59106,19 +59106,19 @@
         <v>809</v>
       </c>
       <c r="AM228" t="n">
-        <v>0.69044918456159</v>
+        <v>6.9044918456159</v>
       </c>
       <c r="AN228" t="n">
-        <v>0.0281641818177163</v>
+        <v>0.281641818177163</v>
       </c>
       <c r="AO228" t="n">
-        <v>0.0298711019278809</v>
+        <v>0.298711019278809</v>
       </c>
       <c r="AP228" t="n">
-        <v>0.392591625337864</v>
+        <v>3.92591625337863</v>
       </c>
       <c r="AQ228" t="n">
-        <v>0.23982227547813</v>
+        <v>2.3982227547813</v>
       </c>
       <c r="AR228" t="n">
         <v>35.011576005091</v>
@@ -59361,19 +59361,19 @@
         <v>709</v>
       </c>
       <c r="AM229" t="n">
-        <v>0.683024575397628</v>
+        <v>6.83024575397628</v>
       </c>
       <c r="AN229" t="n">
-        <v>0.00289008988179532</v>
+        <v>0.0289008988179532</v>
       </c>
       <c r="AO229" t="n">
-        <v>0.021193992466499</v>
+        <v>0.21193992466499</v>
       </c>
       <c r="AP229" t="n">
-        <v>0.479754920378024</v>
+        <v>4.79754920378024</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.17918557267131</v>
+        <v>1.7918557267131</v>
       </c>
       <c r="AR229" t="n">
         <v>47.020568262887</v>
@@ -59616,19 +59616,19 @@
         <v>201</v>
       </c>
       <c r="AM230" t="n">
-        <v>0.801771076407587</v>
+        <v>8.01771076407587</v>
       </c>
       <c r="AN230" t="n">
-        <v>0.00398891082789844</v>
+        <v>0.0398891082789844</v>
       </c>
       <c r="AO230" t="n">
-        <v>0.035900197451086</v>
+        <v>0.35900197451086</v>
       </c>
       <c r="AP230" t="n">
-        <v>0.574403159217376</v>
+        <v>5.74403159217376</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.187478808911227</v>
+        <v>1.87478808911227</v>
       </c>
       <c r="AR230" t="n">
         <v>47.4767429120234</v>
@@ -59871,19 +59871,19 @@
         <v>2525</v>
       </c>
       <c r="AM231" t="n">
-        <v>0.523953493680395</v>
+        <v>5.23953493680395</v>
       </c>
       <c r="AN231" t="n">
-        <v>0.00435763301674784</v>
+        <v>0.0435763301674784</v>
       </c>
       <c r="AO231" t="n">
-        <v>0.0296734057807115</v>
+        <v>0.296734057807115</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.301506703492124</v>
+        <v>3.01506703492124</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.188415751390811</v>
+        <v>1.88415751390811</v>
       </c>
       <c r="AR231" t="n">
         <v>71.52895004194</v>
@@ -60126,19 +60126,19 @@
         <v>2595</v>
       </c>
       <c r="AM232" t="n">
-        <v>1.25507228152311</v>
+        <v>12.5507228152311</v>
       </c>
       <c r="AN232" t="n">
-        <v>0.00483650204825862</v>
+        <v>0.0483650204825862</v>
       </c>
       <c r="AO232" t="n">
-        <v>0.0430448682295017</v>
+        <v>0.430448682295017</v>
       </c>
       <c r="AP232" t="n">
-        <v>0.450761990897703</v>
+        <v>4.50761990897703</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.756428920347648</v>
+        <v>7.56428920347648</v>
       </c>
       <c r="AR232" t="n">
         <v>29.0353936327005</v>
@@ -60381,19 +60381,19 @@
         <v>497</v>
       </c>
       <c r="AM233" t="n">
-        <v>0.661787812451731</v>
+        <v>6.61787812451731</v>
       </c>
       <c r="AN233" t="n">
-        <v>0.00133156501499342</v>
+        <v>0.0133156501499342</v>
       </c>
       <c r="AO233" t="n">
-        <v>0.0399469504498027</v>
+        <v>0.399469504498027</v>
       </c>
       <c r="AP233" t="n">
-        <v>0.543278526117316</v>
+        <v>5.43278526117316</v>
       </c>
       <c r="AQ233" t="n">
-        <v>0.0772307708696185</v>
+        <v>0.772307708696185</v>
       </c>
       <c r="AR233" t="n">
         <v>47.7297406594294</v>
@@ -60636,19 +60636,19 @@
         <v>6203</v>
       </c>
       <c r="AM234" t="n">
-        <v>0.717866947996135</v>
+        <v>7.17866947996135</v>
       </c>
       <c r="AN234" t="n">
-        <v>0.0121515443397701</v>
+        <v>0.121515443397701</v>
       </c>
       <c r="AO234" t="n">
-        <v>0.0208312188681774</v>
+        <v>0.208312188681774</v>
       </c>
       <c r="AP234" t="n">
-        <v>0.435141016357483</v>
+        <v>4.35141016357483</v>
       </c>
       <c r="AQ234" t="n">
-        <v>0.249743168430704</v>
+        <v>2.49743168430704</v>
       </c>
       <c r="AR234" t="n">
         <v>64.6981453458087</v>
@@ -60891,19 +60891,19 @@
         <v>497</v>
       </c>
       <c r="AM235" t="n">
-        <v>0.842930072420753</v>
+        <v>8.42930072420753</v>
       </c>
       <c r="AN235" t="n">
-        <v>0.0831057817879615</v>
+        <v>0.831057817879615</v>
       </c>
       <c r="AO235" t="n">
-        <v>0.100066145418158</v>
+        <v>1.00066145418158</v>
       </c>
       <c r="AP235" t="n">
-        <v>0.476586218008514</v>
+        <v>4.76586218008514</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.183171927206119</v>
+        <v>1.83171927206119</v>
       </c>
       <c r="AR235" t="n">
         <v>77.0907393292866</v>
@@ -61146,19 +61146,19 @@
         <v>74</v>
       </c>
       <c r="AM236" t="n">
-        <v>0.286561800537497</v>
+        <v>2.86561800537497</v>
       </c>
       <c r="AN236" t="n">
-        <v>0.0193622838201011</v>
+        <v>0.193622838201011</v>
       </c>
       <c r="AO236" t="n">
-        <v>0.050341937932263</v>
+        <v>0.50341937932263</v>
       </c>
       <c r="AP236" t="n">
-        <v>0.197495294965032</v>
+        <v>1.97495294965032</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.0193622838201011</v>
+        <v>0.193622838201011</v>
       </c>
       <c r="AR236" t="n">
         <v>46.7393911529968</v>
@@ -61401,19 +61401,19 @@
         <v>1956</v>
       </c>
       <c r="AM237" t="n">
-        <v>0.937241701505768</v>
+        <v>9.37241701505768</v>
       </c>
       <c r="AN237" t="n">
-        <v>0.025874770900466</v>
+        <v>0.25874770900466</v>
       </c>
       <c r="AO237" t="n">
-        <v>0.0421662933192779</v>
+        <v>0.421662933192779</v>
       </c>
       <c r="AP237" t="n">
-        <v>0.605661304040537</v>
+        <v>6.05661304040537</v>
       </c>
       <c r="AQ237" t="n">
-        <v>0.263539333245487</v>
+        <v>2.63539333245487</v>
       </c>
       <c r="AR237" t="n">
         <v>45.1829844985023</v>
@@ -61656,19 +61656,19 @@
         <v>1736</v>
       </c>
       <c r="AM238" t="n">
-        <v>0.943683409436834</v>
+        <v>9.43683409436834</v>
       </c>
       <c r="AN238" t="n">
-        <v>0.0119591215481626</v>
+        <v>0.119591215481626</v>
       </c>
       <c r="AO238" t="n">
-        <v>0.048380082626658</v>
+        <v>0.48380082626658</v>
       </c>
       <c r="AP238" t="n">
-        <v>0.808871493803001</v>
+        <v>8.08871493803001</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.0744727114590128</v>
+        <v>0.744727114590128</v>
       </c>
       <c r="AR238" t="n">
         <v>55.5139943453569</v>
@@ -61911,19 +61911,19 @@
         <v>464</v>
       </c>
       <c r="AM239" t="n">
-        <v>1.91555854632225</v>
+        <v>19.1555854632225</v>
       </c>
       <c r="AN239" t="n">
-        <v>0.00412835893603933</v>
+        <v>0.0412835893603933</v>
       </c>
       <c r="AO239" t="n">
-        <v>0.06192538404059</v>
+        <v>0.6192538404059</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.45318234548585</v>
+        <v>14.5318234548585</v>
       </c>
       <c r="AQ239" t="n">
-        <v>0.396322457859776</v>
+        <v>3.96322457859776</v>
       </c>
       <c r="AR239" t="n">
         <v>65.6295040679953</v>
@@ -62166,19 +62166,19 @@
         <v>377</v>
       </c>
       <c r="AM240" t="n">
-        <v>0.612277379517779</v>
+        <v>6.12277379517779</v>
       </c>
       <c r="AN240" t="n">
-        <v>0.0113685455082877</v>
+        <v>0.113685455082877</v>
       </c>
       <c r="AO240" t="n">
-        <v>0.0129926234380431</v>
+        <v>0.129926234380431</v>
       </c>
       <c r="AP240" t="n">
-        <v>0.503464158224168</v>
+        <v>5.03464158224168</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.0844520523472798</v>
+        <v>0.844520523472798</v>
       </c>
       <c r="AR240" t="n">
         <v>66.2206557122923</v>
@@ -62421,19 +62421,19 @@
         <v>225</v>
       </c>
       <c r="AM241" t="n">
-        <v>0.531422417050865</v>
+        <v>5.31422417050865</v>
       </c>
       <c r="AN241" t="n">
-        <v>0.00236187740911496</v>
+        <v>0.0236187740911496</v>
       </c>
       <c r="AO241" t="n">
-        <v>0.0307044063184944</v>
+        <v>0.307044063184944</v>
       </c>
       <c r="AP241" t="n">
-        <v>0.330662837276094</v>
+        <v>3.30662837276094</v>
       </c>
       <c r="AQ241" t="n">
-        <v>0.167693296047162</v>
+        <v>1.67693296047162</v>
       </c>
       <c r="AR241" t="n">
         <v>60.7636597898776</v>
@@ -62676,19 +62676,19 @@
         <v>593</v>
       </c>
       <c r="AM242" t="n">
-        <v>0.429168086974206</v>
+        <v>4.29168086974206</v>
       </c>
       <c r="AN242" t="n">
-        <v>0.00434234152081827</v>
+        <v>0.0434234152081827</v>
       </c>
       <c r="AO242" t="n">
-        <v>0.0557267161838345</v>
+        <v>0.557267161838345</v>
       </c>
       <c r="AP242" t="n">
-        <v>0.288041987547612</v>
+        <v>2.88041987547612</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.0810570417219411</v>
+        <v>0.810570417219411</v>
       </c>
       <c r="AR242" t="n">
         <v>59.5446455990442</v>
@@ -62931,19 +62931,19 @@
         <v>170</v>
       </c>
       <c r="AM243" t="n">
-        <v>0.461034452833464</v>
+        <v>4.61034452833464</v>
       </c>
       <c r="AN243" t="n">
-        <v>0.013559836848043</v>
+        <v>0.13559836848043</v>
       </c>
       <c r="AO243" t="n">
-        <v>0.0325436084353033</v>
+        <v>0.325436084353033</v>
       </c>
       <c r="AP243" t="n">
-        <v>0.376963464375597</v>
+        <v>3.76963464375597</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.0379675431745205</v>
+        <v>0.379675431745205</v>
       </c>
       <c r="AR243" t="n">
         <v>69.2477210035865</v>
@@ -63186,19 +63186,19 @@
         <v>736</v>
       </c>
       <c r="AM244" t="n">
-        <v>0.397169305288288</v>
+        <v>3.97169305288288</v>
       </c>
       <c r="AN244" t="n">
-        <v>0.00215852883308852</v>
+        <v>0.0215852883308852</v>
       </c>
       <c r="AO244" t="n">
-        <v>0.0518046919941245</v>
+        <v>0.518046919941245</v>
       </c>
       <c r="AP244" t="n">
-        <v>0.285465438175957</v>
+        <v>2.85465438175957</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.0577406462851179</v>
+        <v>0.577406462851179</v>
       </c>
       <c r="AR244" t="n">
         <v>30.9715519740294</v>
@@ -63443,19 +63443,19 @@
         <v>207</v>
       </c>
       <c r="AM245" t="n">
-        <v>0.445961143211696</v>
+        <v>4.45961143211696</v>
       </c>
       <c r="AN245" t="n">
         <v>0</v>
       </c>
       <c r="AO245" t="n">
-        <v>0.0366248281864678</v>
+        <v>0.366248281864678</v>
       </c>
       <c r="AP245" t="n">
-        <v>0.323160248704127</v>
+        <v>3.23160248704127</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.0861760663211006</v>
+        <v>0.861760663211006</v>
       </c>
       <c r="AR245" t="n">
         <v>58.1534273938722</v>
@@ -63700,19 +63700,19 @@
         <v>417</v>
       </c>
       <c r="AM246" t="n">
-        <v>0.385085642308076</v>
+        <v>3.85085642308076</v>
       </c>
       <c r="AN246" t="n">
-        <v>0.00646426737687418</v>
+        <v>0.0646426737687418</v>
       </c>
       <c r="AO246" t="n">
-        <v>0.0277040030437465</v>
+        <v>0.277040030437465</v>
       </c>
       <c r="AP246" t="n">
-        <v>0.301050166408712</v>
+        <v>3.01050166408712</v>
       </c>
       <c r="AQ246" t="n">
-        <v>0.0498672054787436</v>
+        <v>0.498672054787436</v>
       </c>
       <c r="AR246" t="n">
         <v>60.8081323335457</v>
@@ -63957,19 +63957,19 @@
         <v>868</v>
       </c>
       <c r="AM247" t="n">
-        <v>1.52399412875995</v>
+        <v>15.2399412875995</v>
       </c>
       <c r="AN247" t="n">
-        <v>0.00526726081368645</v>
+        <v>0.0526726081368645</v>
       </c>
       <c r="AO247" t="n">
-        <v>0.728637745893292</v>
+        <v>7.28637745893292</v>
       </c>
       <c r="AP247" t="n">
-        <v>0.679476644965552</v>
+        <v>6.79476644965552</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.110612477087415</v>
+        <v>1.10612477087415</v>
       </c>
       <c r="AR247" t="n">
         <v>61.8170185202961</v>
@@ -64214,19 +64214,19 @@
         <v>146</v>
       </c>
       <c r="AM248" t="n">
-        <v>0.466602748481943</v>
+        <v>4.66602748481943</v>
       </c>
       <c r="AN248" t="n">
         <v>0</v>
       </c>
       <c r="AO248" t="n">
-        <v>0.00319590923617769</v>
+        <v>0.0319590923617769</v>
       </c>
       <c r="AP248" t="n">
-        <v>0.364333652924257</v>
+        <v>3.64333652924257</v>
       </c>
       <c r="AQ248" t="n">
-        <v>0.0990731863215085</v>
+        <v>0.990731863215085</v>
       </c>
       <c r="AR248" t="n">
         <v>50.5853478526284</v>
@@ -64471,19 +64471,19 @@
         <v>396</v>
       </c>
       <c r="AM249" t="n">
-        <v>0.567410031121581</v>
+        <v>5.67410031121581</v>
       </c>
       <c r="AN249" t="n">
-        <v>0.00286570722788677</v>
+        <v>0.0286570722788677</v>
       </c>
       <c r="AO249" t="n">
-        <v>0.0229256578230942</v>
+        <v>0.229256578230942</v>
       </c>
       <c r="AP249" t="n">
-        <v>0.341019160118526</v>
+        <v>3.41019160118526</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.200599505952074</v>
+        <v>2.00599505952074</v>
       </c>
       <c r="AR249" t="n">
         <v>55.7463788063572</v>
@@ -64728,19 +64728,19 @@
         <v>1967</v>
       </c>
       <c r="AM250" t="n">
-        <v>1.39019639439455</v>
+        <v>13.9019639439455</v>
       </c>
       <c r="AN250" t="n">
-        <v>0.00141351946557656</v>
+        <v>0.0141351946557656</v>
       </c>
       <c r="AO250" t="n">
-        <v>0.022616311449225</v>
+        <v>0.22616311449225</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.09194378715789</v>
+        <v>10.9194378715789</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.274222776321853</v>
+        <v>2.74222776321853</v>
       </c>
       <c r="AR250" t="n">
         <v>55.3720860370854</v>
@@ -64985,19 +64985,19 @@
         <v>1319</v>
       </c>
       <c r="AM251" t="n">
-        <v>2.08899200988272</v>
+        <v>20.8899200988272</v>
       </c>
       <c r="AN251" t="n">
-        <v>0.00158376952985801</v>
+        <v>0.0158376952985801</v>
       </c>
       <c r="AO251" t="n">
-        <v>0.270824589605721</v>
+        <v>2.70824589605721</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.77857318203055</v>
+        <v>17.7857318203055</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.0380104687165924</v>
+        <v>0.380104687165924</v>
       </c>
       <c r="AR251" t="n">
         <v>57.5998519687089</v>
@@ -65242,7 +65242,7 @@
         <v>211</v>
       </c>
       <c r="AM252" t="n">
-        <v>1.09389905022604</v>
+        <v>10.9389905022604</v>
       </c>
       <c r="AN252" t="n">
         <v>0</v>
@@ -65251,10 +65251,10 @@
         <v>0</v>
       </c>
       <c r="AP252" t="n">
-        <v>0.834681265812285</v>
+        <v>8.34681265812285</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.259217784413753</v>
+        <v>2.59217784413753</v>
       </c>
       <c r="AR252" t="n">
         <v>70.7333069925328</v>
@@ -65499,19 +65499,19 @@
         <v>1057</v>
       </c>
       <c r="AM253" t="n">
-        <v>0.980656845253834</v>
+        <v>9.80656845253834</v>
       </c>
       <c r="AN253" t="n">
-        <v>0.001855547483924</v>
+        <v>0.01855547483924</v>
       </c>
       <c r="AO253" t="n">
-        <v>0.095560695422086</v>
+        <v>0.95560695422086</v>
       </c>
       <c r="AP253" t="n">
-        <v>0.653152714341248</v>
+        <v>6.53152714341248</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.230087888006576</v>
+        <v>2.30087888006576</v>
       </c>
       <c r="AR253" t="n">
         <v>59.7029238137939</v>
@@ -65756,19 +65756,19 @@
         <v>172</v>
       </c>
       <c r="AM254" t="n">
-        <v>0.481846705513223</v>
+        <v>4.81846705513223</v>
       </c>
       <c r="AN254" t="n">
-        <v>0.0168086060062752</v>
+        <v>0.168086060062752</v>
       </c>
       <c r="AO254" t="n">
-        <v>0.0308157776781712</v>
+        <v>0.308157776781712</v>
       </c>
       <c r="AP254" t="n">
-        <v>0.395002241147467</v>
+        <v>3.95002241147467</v>
       </c>
       <c r="AQ254" t="n">
-        <v>0.0392200806813088</v>
+        <v>0.392200806813088</v>
       </c>
       <c r="AR254" t="n">
         <v>34.5831193819611</v>
@@ -66013,19 +66013,19 @@
         <v>885</v>
       </c>
       <c r="AM255" t="n">
-        <v>0.747860990810183</v>
+        <v>7.47860990810183</v>
       </c>
       <c r="AN255" t="n">
-        <v>0.0194359353543889</v>
+        <v>0.194359353543889</v>
       </c>
       <c r="AO255" t="n">
-        <v>0.0219710573571353</v>
+        <v>0.219710573571353</v>
       </c>
       <c r="AP255" t="n">
-        <v>0.42505545579381</v>
+        <v>4.2505545579381</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.281398542304848</v>
+        <v>2.81398542304848</v>
       </c>
       <c r="AR255" t="n">
         <v>35.011576005091</v>
@@ -66270,19 +66270,19 @@
         <v>760</v>
       </c>
       <c r="AM256" t="n">
-        <v>0.723601402263349</v>
+        <v>7.23601402263349</v>
       </c>
       <c r="AN256" t="n">
-        <v>0.003808428432965</v>
+        <v>0.0380842843296499</v>
       </c>
       <c r="AO256" t="n">
-        <v>0.03046742746372</v>
+        <v>0.3046742746372</v>
       </c>
       <c r="AP256" t="n">
-        <v>0.569360050728267</v>
+        <v>5.69360050728267</v>
       </c>
       <c r="AQ256" t="n">
-        <v>0.119965495638397</v>
+        <v>1.19965495638397</v>
       </c>
       <c r="AR256" t="n">
         <v>47.020568262887</v>
@@ -66527,19 +66527,19 @@
         <v>205</v>
       </c>
       <c r="AM257" t="n">
-        <v>0.79719387755102</v>
+        <v>7.9719387755102</v>
       </c>
       <c r="AN257" t="n">
         <v>0</v>
       </c>
       <c r="AO257" t="n">
-        <v>0.0116662518666003</v>
+        <v>0.116662518666003</v>
       </c>
       <c r="AP257" t="n">
-        <v>0.614422598307616</v>
+        <v>6.14422598307616</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.171105027376804</v>
+        <v>1.71105027376804</v>
       </c>
       <c r="AR257" t="n">
         <v>47.4767429120234</v>
@@ -66784,19 +66784,19 @@
         <v>2498</v>
       </c>
       <c r="AM258" t="n">
-        <v>0.514630080272404</v>
+        <v>5.14630080272404</v>
       </c>
       <c r="AN258" t="n">
-        <v>0.0121549938895404</v>
+        <v>0.121549938895404</v>
       </c>
       <c r="AO258" t="n">
-        <v>0.0274002404628622</v>
+        <v>0.274002404628622</v>
       </c>
       <c r="AP258" t="n">
-        <v>0.326330683407321</v>
+        <v>3.26330683407321</v>
       </c>
       <c r="AQ258" t="n">
-        <v>0.14874416251268</v>
+        <v>1.4874416251268</v>
       </c>
       <c r="AR258" t="n">
         <v>71.52895004194</v>
@@ -67041,19 +67041,19 @@
         <v>2396</v>
       </c>
       <c r="AM259" t="n">
-        <v>1.1467911863641</v>
+        <v>11.467911863641</v>
       </c>
       <c r="AN259" t="n">
-        <v>0.00813666534565512</v>
+        <v>0.0813666534565512</v>
       </c>
       <c r="AO259" t="n">
-        <v>0.0559994026730381</v>
+        <v>0.559994026730382</v>
       </c>
       <c r="AP259" t="n">
-        <v>0.471447962674723</v>
+        <v>4.71447962674723</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.611207155670681</v>
+        <v>6.11207155670681</v>
       </c>
       <c r="AR259" t="n">
         <v>29.0353936327005</v>
@@ -67298,19 +67298,19 @@
         <v>925</v>
       </c>
       <c r="AM260" t="n">
-        <v>1.21632745375983</v>
+        <v>12.1632745375983</v>
       </c>
       <c r="AN260" t="n">
         <v>0</v>
       </c>
       <c r="AO260" t="n">
-        <v>0.0131494859865928</v>
+        <v>0.131494859865928</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.15189497242553</v>
+        <v>11.5189497242553</v>
       </c>
       <c r="AQ260" t="n">
-        <v>0.0512829953477119</v>
+        <v>0.512829953477119</v>
       </c>
       <c r="AR260" t="n">
         <v>47.7297406594294</v>
@@ -67555,19 +67555,19 @@
         <v>6092</v>
       </c>
       <c r="AM261" t="n">
-        <v>0.698262950559842</v>
+        <v>6.98262950559842</v>
       </c>
       <c r="AN261" t="n">
-        <v>0.0111181067308445</v>
+        <v>0.111181067308445</v>
       </c>
       <c r="AO261" t="n">
-        <v>0.0237262690029362</v>
+        <v>0.237262690029362</v>
       </c>
       <c r="AP261" t="n">
-        <v>0.43429388044505</v>
+        <v>4.3429388044505</v>
       </c>
       <c r="AQ261" t="n">
-        <v>0.229124694381012</v>
+        <v>2.29124694381012</v>
       </c>
       <c r="AR261" t="n">
         <v>64.6981453458087</v>
@@ -67812,19 +67812,19 @@
         <v>536</v>
       </c>
       <c r="AM262" t="n">
-        <v>0.900344012040421</v>
+        <v>9.00344012040421</v>
       </c>
       <c r="AN262" t="n">
-        <v>0.08902655342937</v>
+        <v>0.8902655342937</v>
       </c>
       <c r="AO262" t="n">
-        <v>0.141098688454096</v>
+        <v>1.41098688454096</v>
       </c>
       <c r="AP262" t="n">
-        <v>0.497204902171576</v>
+        <v>4.97204902171576</v>
       </c>
       <c r="AQ262" t="n">
-        <v>0.173013867985379</v>
+        <v>1.73013867985379</v>
       </c>
       <c r="AR262" t="n">
         <v>77.0907393292866</v>
@@ -68069,19 +68069,19 @@
         <v>66</v>
       </c>
       <c r="AM263" t="n">
-        <v>0.252380406103017</v>
+        <v>2.52380406103017</v>
       </c>
       <c r="AN263" t="n">
         <v>0</v>
       </c>
       <c r="AO263" t="n">
-        <v>0.0573591832052312</v>
+        <v>0.573591832052312</v>
       </c>
       <c r="AP263" t="n">
-        <v>0.164429658521663</v>
+        <v>1.64429658521663</v>
       </c>
       <c r="AQ263" t="n">
-        <v>0.0305915643761233</v>
+        <v>0.305915643761233</v>
       </c>
       <c r="AR263" t="n">
         <v>46.7393911529968</v>
@@ -68326,19 +68326,19 @@
         <v>2158</v>
       </c>
       <c r="AM264" t="n">
-        <v>1.01357428658789</v>
+        <v>10.1357428658789</v>
       </c>
       <c r="AN264" t="n">
-        <v>0.0291202992439525</v>
+        <v>0.291202992439525</v>
       </c>
       <c r="AO264" t="n">
-        <v>0.0375745796696161</v>
+        <v>0.375745796696161</v>
       </c>
       <c r="AP264" t="n">
-        <v>0.612935330860613</v>
+        <v>6.12935330860613</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0.333944076813713</v>
+        <v>3.33944076813713</v>
       </c>
       <c r="AR264" t="n">
         <v>45.1829844985023</v>
@@ -68583,19 +68583,19 @@
         <v>1985</v>
       </c>
       <c r="AM265" t="n">
-        <v>1.07060260094407</v>
+        <v>10.7060260094407</v>
       </c>
       <c r="AN265" t="n">
-        <v>0.0134836599615122</v>
+        <v>0.134836599615122</v>
       </c>
       <c r="AO265" t="n">
-        <v>0.0631035286198773</v>
+        <v>0.631035286198773</v>
       </c>
       <c r="AP265" t="n">
-        <v>0.895315021444413</v>
+        <v>8.95315021444413</v>
       </c>
       <c r="AQ265" t="n">
-        <v>0.0987003909182696</v>
+        <v>0.987003909182696</v>
       </c>
       <c r="AR265" t="n">
         <v>55.5139943453569</v>
@@ -68840,19 +68840,19 @@
         <v>546</v>
       </c>
       <c r="AM266" t="n">
-        <v>2.0830074660176</v>
+        <v>20.830074660176</v>
       </c>
       <c r="AN266" t="n">
-        <v>0.00381503198904323</v>
+        <v>0.0381503198904323</v>
       </c>
       <c r="AO266" t="n">
-        <v>0.0534104478466052</v>
+        <v>0.534104478466052</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.78543497087223</v>
+        <v>17.8543497087223</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.240347015309723</v>
+        <v>2.40347015309723</v>
       </c>
       <c r="AR266" t="n">
         <v>65.6295040679953</v>
@@ -69097,19 +69097,19 @@
         <v>368</v>
       </c>
       <c r="AM267" t="n">
-        <v>0.589162924361407</v>
+        <v>5.89162924361407</v>
       </c>
       <c r="AN267" t="n">
-        <v>0.00800493103751911</v>
+        <v>0.0800493103751911</v>
       </c>
       <c r="AO267" t="n">
-        <v>0.00960591724502293</v>
+        <v>0.0960591724502293</v>
       </c>
       <c r="AP267" t="n">
-        <v>0.512315586401223</v>
+        <v>5.12315586401223</v>
       </c>
       <c r="AQ267" t="n">
-        <v>0.0592364896776414</v>
+        <v>0.592364896776414</v>
       </c>
       <c r="AR267" t="n">
         <v>66.2206557122923</v>
@@ -69354,19 +69354,19 @@
         <v>187</v>
       </c>
       <c r="AM268" t="n">
-        <v>0.436379589569828</v>
+        <v>4.36379589569828</v>
       </c>
       <c r="AN268" t="n">
-        <v>0.00233358069288678</v>
+        <v>0.0233358069288678</v>
       </c>
       <c r="AO268" t="n">
-        <v>0.0280029683146414</v>
+        <v>0.280029683146414</v>
       </c>
       <c r="AP268" t="n">
-        <v>0.333702039082809</v>
+        <v>3.33702039082809</v>
       </c>
       <c r="AQ268" t="n">
-        <v>0.0723410014794902</v>
+        <v>0.723410014794902</v>
       </c>
       <c r="AR268" t="n">
         <v>60.7636597898776</v>
@@ -69611,19 +69611,19 @@
         <v>568</v>
       </c>
       <c r="AM269" t="n">
-        <v>0.406677239320248</v>
+        <v>4.06677239320248</v>
       </c>
       <c r="AN269" t="n">
-        <v>0.00429588633084769</v>
+        <v>0.0429588633084769</v>
       </c>
       <c r="AO269" t="n">
-        <v>0.0393789580327705</v>
+        <v>0.393789580327705</v>
       </c>
       <c r="AP269" t="n">
-        <v>0.280664573615382</v>
+        <v>2.80664573615382</v>
       </c>
       <c r="AQ269" t="n">
-        <v>0.0823378213412473</v>
+        <v>0.823378213412473</v>
       </c>
       <c r="AR269" t="n">
         <v>59.5446455990442</v>
@@ -69868,19 +69868,19 @@
         <v>201</v>
       </c>
       <c r="AM270" t="n">
-        <v>0.535403203895391</v>
+        <v>5.35403203895391</v>
       </c>
       <c r="AN270" t="n">
-        <v>0.0106547901272715</v>
+        <v>0.106547901272715</v>
       </c>
       <c r="AO270" t="n">
-        <v>0.039955462977268</v>
+        <v>0.39955462977268</v>
       </c>
       <c r="AP270" t="n">
-        <v>0.375581351986319</v>
+        <v>3.75581351986319</v>
       </c>
       <c r="AQ270" t="n">
-        <v>0.109211598804533</v>
+        <v>1.09211598804533</v>
       </c>
       <c r="AR270" t="n">
         <v>69.2477210035865</v>
@@ -70125,19 +70125,19 @@
         <v>761</v>
       </c>
       <c r="AM271" t="n">
-        <v>0.404558486345221</v>
+        <v>4.04558486345221</v>
       </c>
       <c r="AN271" t="n">
-        <v>0.00159484291594699</v>
+        <v>0.0159484291594699</v>
       </c>
       <c r="AO271" t="n">
-        <v>0.0308336297083085</v>
+        <v>0.308336297083085</v>
       </c>
       <c r="AP271" t="n">
-        <v>0.338638312486078</v>
+        <v>3.38638312486078</v>
       </c>
       <c r="AQ271" t="n">
-        <v>0.0334917012348869</v>
+        <v>0.334917012348869</v>
       </c>
       <c r="AR271" t="n">
         <v>30.9715519740294</v>
